--- a/Data/output.xlsx
+++ b/Data/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:Q177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,81 @@
           <t>Base</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAA Late</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AAA Early</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>AA Late</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AA Early</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AA </t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>A Late</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>A Early</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>BBB Late</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>BBB Early</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>BB Late</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>BB Early</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -447,6 +522,51 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>409126.3477283367</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>409126.3477283367</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>409126.3477283367</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>409126.3477283367</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>409126.3477283367</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -455,13 +575,103 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>411316.7821327685</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>411316.7821327685</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>411316.7821327685</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>411316.7821327685</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>411316.7821327685</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>261762.8788551587</v>
+        <v>1233963.281803018</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>413520.1519419128</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1233963.281803018</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>413520.1519419128</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1233963.281803018</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>413520.1519419128</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1233963.281803018</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>413520.1519419128</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1233963.281803018</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>413520.1519419128</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1233963.281803018</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +679,52 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>89847.429</v>
+        <v>415736.5481743201</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>415736.5481743201</v>
+      </c>
+      <c r="E5" t="n">
+        <v>415736.5481743201</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>415736.5481743201</v>
+      </c>
+      <c r="H5" t="n">
+        <v>415736.5481743201</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>415736.5481743201</v>
+      </c>
+      <c r="K5" t="n">
+        <v>415736.5481743201</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>415736.5481743201</v>
+      </c>
+      <c r="N5" t="n">
+        <v>415736.5481743201</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>415736.5481743201</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>415736.5481743201</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +732,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55815.50030852934</v>
+        <v>298905.5729581449</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1948605.402935483</v>
+      </c>
+      <c r="D6" t="n">
+        <v>298905.5729581449</v>
+      </c>
+      <c r="E6" t="n">
+        <v>298905.5729581449</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1948605.402935483</v>
+      </c>
+      <c r="G6" t="n">
+        <v>298905.5729581449</v>
+      </c>
+      <c r="H6" t="n">
+        <v>298905.5729581449</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1948605.402935483</v>
+      </c>
+      <c r="J6" t="n">
+        <v>298905.5729581449</v>
+      </c>
+      <c r="K6" t="n">
+        <v>298905.5729581449</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1948605.402935483</v>
+      </c>
+      <c r="M6" t="n">
+        <v>298905.5729581449</v>
+      </c>
+      <c r="N6" t="n">
+        <v>298905.5729581449</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1948605.402935483</v>
+      </c>
+      <c r="P6" t="n">
+        <v>298905.5729581449</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>298905.5729581449</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +785,52 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56641.80276321348</v>
+        <v>300552.9254278317</v>
+      </c>
+      <c r="C7" t="n">
+        <v>300552.9254278317</v>
+      </c>
+      <c r="D7" t="n">
+        <v>300552.9254278317</v>
+      </c>
+      <c r="E7" t="n">
+        <v>300552.9254278317</v>
+      </c>
+      <c r="F7" t="n">
+        <v>300552.9254278317</v>
+      </c>
+      <c r="G7" t="n">
+        <v>300552.9254278317</v>
+      </c>
+      <c r="H7" t="n">
+        <v>300552.9254278317</v>
+      </c>
+      <c r="I7" t="n">
+        <v>300552.9254278317</v>
+      </c>
+      <c r="J7" t="n">
+        <v>300552.9254278317</v>
+      </c>
+      <c r="K7" t="n">
+        <v>300552.9254278317</v>
+      </c>
+      <c r="L7" t="n">
+        <v>300552.9254278317</v>
+      </c>
+      <c r="M7" t="n">
+        <v>300552.9254278317</v>
+      </c>
+      <c r="N7" t="n">
+        <v>300552.9254278317</v>
+      </c>
+      <c r="O7" t="n">
+        <v>300552.9254278317</v>
+      </c>
+      <c r="P7" t="n">
+        <v>300552.9254278317</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>300552.9254278317</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +838,52 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57480.50605465747</v>
+        <v>302210.5701170056</v>
+      </c>
+      <c r="C8" t="n">
+        <v>302210.5701170056</v>
+      </c>
+      <c r="D8" t="n">
+        <v>302210.5701170056</v>
+      </c>
+      <c r="E8" t="n">
+        <v>302210.5701170056</v>
+      </c>
+      <c r="F8" t="n">
+        <v>302210.5701170056</v>
+      </c>
+      <c r="G8" t="n">
+        <v>302210.5701170056</v>
+      </c>
+      <c r="H8" t="n">
+        <v>302210.5701170056</v>
+      </c>
+      <c r="I8" t="n">
+        <v>302210.5701170056</v>
+      </c>
+      <c r="J8" t="n">
+        <v>302210.5701170056</v>
+      </c>
+      <c r="K8" t="n">
+        <v>302210.5701170056</v>
+      </c>
+      <c r="L8" t="n">
+        <v>302210.5701170056</v>
+      </c>
+      <c r="M8" t="n">
+        <v>302210.5701170056</v>
+      </c>
+      <c r="N8" t="n">
+        <v>302210.5701170056</v>
+      </c>
+      <c r="O8" t="n">
+        <v>302210.5701170056</v>
+      </c>
+      <c r="P8" t="n">
+        <v>302210.5701170056</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>302210.5701170056</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +891,52 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>58331.79850283993</v>
+        <v>303878.5856211395</v>
+      </c>
+      <c r="C9" t="n">
+        <v>303878.5856211395</v>
+      </c>
+      <c r="D9" t="n">
+        <v>303878.5856211395</v>
+      </c>
+      <c r="E9" t="n">
+        <v>303878.5856211395</v>
+      </c>
+      <c r="F9" t="n">
+        <v>303878.5856211395</v>
+      </c>
+      <c r="G9" t="n">
+        <v>303878.5856211395</v>
+      </c>
+      <c r="H9" t="n">
+        <v>303878.5856211395</v>
+      </c>
+      <c r="I9" t="n">
+        <v>303878.5856211395</v>
+      </c>
+      <c r="J9" t="n">
+        <v>303878.5856211395</v>
+      </c>
+      <c r="K9" t="n">
+        <v>303878.5856211395</v>
+      </c>
+      <c r="L9" t="n">
+        <v>303878.5856211395</v>
+      </c>
+      <c r="M9" t="n">
+        <v>303878.5856211395</v>
+      </c>
+      <c r="N9" t="n">
+        <v>303878.5856211395</v>
+      </c>
+      <c r="O9" t="n">
+        <v>303878.5856211395</v>
+      </c>
+      <c r="P9" t="n">
+        <v>303878.5856211395</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>303878.5856211395</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +944,52 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38657.16298724909</v>
+        <v>240710.0297205367</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240710.0297205367</v>
+      </c>
+      <c r="D10" t="n">
+        <v>240710.0297205367</v>
+      </c>
+      <c r="E10" t="n">
+        <v>240710.0297205367</v>
+      </c>
+      <c r="F10" t="n">
+        <v>240710.0297205367</v>
+      </c>
+      <c r="G10" t="n">
+        <v>240710.0297205367</v>
+      </c>
+      <c r="H10" t="n">
+        <v>240710.0297205367</v>
+      </c>
+      <c r="I10" t="n">
+        <v>240710.0297205367</v>
+      </c>
+      <c r="J10" t="n">
+        <v>240710.0297205367</v>
+      </c>
+      <c r="K10" t="n">
+        <v>240710.0297205367</v>
+      </c>
+      <c r="L10" t="n">
+        <v>240710.0297205367</v>
+      </c>
+      <c r="M10" t="n">
+        <v>240710.0297205367</v>
+      </c>
+      <c r="N10" t="n">
+        <v>240710.0297205367</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240710.0297205367</v>
+      </c>
+      <c r="P10" t="n">
+        <v>240710.0297205367</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>240710.0297205367</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +997,52 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39229.06206119308</v>
+        <v>242071.6366884096</v>
+      </c>
+      <c r="C11" t="n">
+        <v>242071.6366884096</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242071.6366884096</v>
+      </c>
+      <c r="E11" t="n">
+        <v>242071.6366884096</v>
+      </c>
+      <c r="F11" t="n">
+        <v>242071.6366884096</v>
+      </c>
+      <c r="G11" t="n">
+        <v>242071.6366884096</v>
+      </c>
+      <c r="H11" t="n">
+        <v>242071.6366884096</v>
+      </c>
+      <c r="I11" t="n">
+        <v>242071.6366884096</v>
+      </c>
+      <c r="J11" t="n">
+        <v>242071.6366884096</v>
+      </c>
+      <c r="K11" t="n">
+        <v>242071.6366884096</v>
+      </c>
+      <c r="L11" t="n">
+        <v>242071.6366884096</v>
+      </c>
+      <c r="M11" t="n">
+        <v>242071.6366884096</v>
+      </c>
+      <c r="N11" t="n">
+        <v>242071.6366884096</v>
+      </c>
+      <c r="O11" t="n">
+        <v>242071.6366884096</v>
+      </c>
+      <c r="P11" t="n">
+        <v>242071.6366884096</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>242071.6366884096</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +1050,52 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>39809.58728747822</v>
+        <v>243442.1597222933</v>
+      </c>
+      <c r="C12" t="n">
+        <v>243442.1597222933</v>
+      </c>
+      <c r="D12" t="n">
+        <v>243442.1597222933</v>
+      </c>
+      <c r="E12" t="n">
+        <v>243442.1597222933</v>
+      </c>
+      <c r="F12" t="n">
+        <v>243442.1597222933</v>
+      </c>
+      <c r="G12" t="n">
+        <v>243442.1597222933</v>
+      </c>
+      <c r="H12" t="n">
+        <v>243442.1597222933</v>
+      </c>
+      <c r="I12" t="n">
+        <v>243442.1597222933</v>
+      </c>
+      <c r="J12" t="n">
+        <v>243442.1597222933</v>
+      </c>
+      <c r="K12" t="n">
+        <v>243442.1597222933</v>
+      </c>
+      <c r="L12" t="n">
+        <v>243442.1597222933</v>
+      </c>
+      <c r="M12" t="n">
+        <v>243442.1597222933</v>
+      </c>
+      <c r="N12" t="n">
+        <v>243442.1597222933</v>
+      </c>
+      <c r="O12" t="n">
+        <v>243442.1597222933</v>
+      </c>
+      <c r="P12" t="n">
+        <v>243442.1597222933</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>243442.1597222933</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +1103,52 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>40398.87091999277</v>
+        <v>244821.6711654041</v>
+      </c>
+      <c r="C13" t="n">
+        <v>244821.6711654041</v>
+      </c>
+      <c r="D13" t="n">
+        <v>244821.6711654041</v>
+      </c>
+      <c r="E13" t="n">
+        <v>244821.6711654041</v>
+      </c>
+      <c r="F13" t="n">
+        <v>244821.6711654041</v>
+      </c>
+      <c r="G13" t="n">
+        <v>244821.6711654041</v>
+      </c>
+      <c r="H13" t="n">
+        <v>244821.6711654041</v>
+      </c>
+      <c r="I13" t="n">
+        <v>244821.6711654041</v>
+      </c>
+      <c r="J13" t="n">
+        <v>244821.6711654041</v>
+      </c>
+      <c r="K13" t="n">
+        <v>244821.6711654041</v>
+      </c>
+      <c r="L13" t="n">
+        <v>244821.6711654041</v>
+      </c>
+      <c r="M13" t="n">
+        <v>244821.6711654041</v>
+      </c>
+      <c r="N13" t="n">
+        <v>244821.6711654041</v>
+      </c>
+      <c r="O13" t="n">
+        <v>244821.6711654041</v>
+      </c>
+      <c r="P13" t="n">
+        <v>244821.6711654041</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>244821.6711654041</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +1156,52 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28854.31467558611</v>
+        <v>208045.2089295419</v>
+      </c>
+      <c r="C14" t="n">
+        <v>208045.2089295419</v>
+      </c>
+      <c r="D14" t="n">
+        <v>208045.2089295419</v>
+      </c>
+      <c r="E14" t="n">
+        <v>208045.2089295419</v>
+      </c>
+      <c r="F14" t="n">
+        <v>208045.2089295419</v>
+      </c>
+      <c r="G14" t="n">
+        <v>208045.2089295419</v>
+      </c>
+      <c r="H14" t="n">
+        <v>208045.2089295419</v>
+      </c>
+      <c r="I14" t="n">
+        <v>208045.2089295419</v>
+      </c>
+      <c r="J14" t="n">
+        <v>208045.2089295419</v>
+      </c>
+      <c r="K14" t="n">
+        <v>208045.2089295419</v>
+      </c>
+      <c r="L14" t="n">
+        <v>208045.2089295419</v>
+      </c>
+      <c r="M14" t="n">
+        <v>208045.2089295419</v>
+      </c>
+      <c r="N14" t="n">
+        <v>208045.2089295419</v>
+      </c>
+      <c r="O14" t="n">
+        <v>208045.2089295419</v>
+      </c>
+      <c r="P14" t="n">
+        <v>208045.2089295419</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>208045.2089295419</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +1209,52 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29278.47338187452</v>
+        <v>209246.5579615931</v>
+      </c>
+      <c r="C15" t="n">
+        <v>209246.5579615931</v>
+      </c>
+      <c r="D15" t="n">
+        <v>209246.5579615931</v>
+      </c>
+      <c r="E15" t="n">
+        <v>209246.5579615931</v>
+      </c>
+      <c r="F15" t="n">
+        <v>209246.5579615931</v>
+      </c>
+      <c r="G15" t="n">
+        <v>209246.5579615931</v>
+      </c>
+      <c r="H15" t="n">
+        <v>209246.5579615931</v>
+      </c>
+      <c r="I15" t="n">
+        <v>209246.5579615931</v>
+      </c>
+      <c r="J15" t="n">
+        <v>209246.5579615931</v>
+      </c>
+      <c r="K15" t="n">
+        <v>209246.5579615931</v>
+      </c>
+      <c r="L15" t="n">
+        <v>209246.5579615931</v>
+      </c>
+      <c r="M15" t="n">
+        <v>209246.5579615931</v>
+      </c>
+      <c r="N15" t="n">
+        <v>209246.5579615931</v>
+      </c>
+      <c r="O15" t="n">
+        <v>209246.5579615931</v>
+      </c>
+      <c r="P15" t="n">
+        <v>209246.5579615931</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>209246.5579615931</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +1262,52 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>29709.02640618724</v>
+        <v>210456.0531427229</v>
+      </c>
+      <c r="C16" t="n">
+        <v>210456.0531427229</v>
+      </c>
+      <c r="D16" t="n">
+        <v>210456.0531427229</v>
+      </c>
+      <c r="E16" t="n">
+        <v>210456.0531427229</v>
+      </c>
+      <c r="F16" t="n">
+        <v>210456.0531427229</v>
+      </c>
+      <c r="G16" t="n">
+        <v>210456.0531427229</v>
+      </c>
+      <c r="H16" t="n">
+        <v>210456.0531427229</v>
+      </c>
+      <c r="I16" t="n">
+        <v>210456.0531427229</v>
+      </c>
+      <c r="J16" t="n">
+        <v>210456.0531427229</v>
+      </c>
+      <c r="K16" t="n">
+        <v>210456.0531427229</v>
+      </c>
+      <c r="L16" t="n">
+        <v>210456.0531427229</v>
+      </c>
+      <c r="M16" t="n">
+        <v>210456.0531427229</v>
+      </c>
+      <c r="N16" t="n">
+        <v>210456.0531427229</v>
+      </c>
+      <c r="O16" t="n">
+        <v>210456.0531427229</v>
+      </c>
+      <c r="P16" t="n">
+        <v>210456.0531427229</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>210456.0531427229</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +1315,52 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>30146.07218836165</v>
+        <v>211673.7633462915</v>
+      </c>
+      <c r="C17" t="n">
+        <v>211673.7633462915</v>
+      </c>
+      <c r="D17" t="n">
+        <v>211673.7633462915</v>
+      </c>
+      <c r="E17" t="n">
+        <v>211673.7633462915</v>
+      </c>
+      <c r="F17" t="n">
+        <v>211673.7633462915</v>
+      </c>
+      <c r="G17" t="n">
+        <v>211673.7633462915</v>
+      </c>
+      <c r="H17" t="n">
+        <v>211673.7633462915</v>
+      </c>
+      <c r="I17" t="n">
+        <v>211673.7633462915</v>
+      </c>
+      <c r="J17" t="n">
+        <v>211673.7633462915</v>
+      </c>
+      <c r="K17" t="n">
+        <v>211673.7633462915</v>
+      </c>
+      <c r="L17" t="n">
+        <v>211673.7633462915</v>
+      </c>
+      <c r="M17" t="n">
+        <v>211673.7633462915</v>
+      </c>
+      <c r="N17" t="n">
+        <v>211673.7633462915</v>
+      </c>
+      <c r="O17" t="n">
+        <v>211673.7633462915</v>
+      </c>
+      <c r="P17" t="n">
+        <v>211673.7633462915</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>211673.7633462915</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +1368,52 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23579.16119689474</v>
+        <v>188323.8253799875</v>
+      </c>
+      <c r="C18" t="n">
+        <v>188323.8253799875</v>
+      </c>
+      <c r="D18" t="n">
+        <v>188323.8253799875</v>
+      </c>
+      <c r="E18" t="n">
+        <v>188323.8253799875</v>
+      </c>
+      <c r="F18" t="n">
+        <v>188323.8253799875</v>
+      </c>
+      <c r="G18" t="n">
+        <v>188323.8253799875</v>
+      </c>
+      <c r="H18" t="n">
+        <v>188323.8253799875</v>
+      </c>
+      <c r="I18" t="n">
+        <v>188323.8253799875</v>
+      </c>
+      <c r="J18" t="n">
+        <v>188323.8253799875</v>
+      </c>
+      <c r="K18" t="n">
+        <v>188323.8253799875</v>
+      </c>
+      <c r="L18" t="n">
+        <v>188323.8253799875</v>
+      </c>
+      <c r="M18" t="n">
+        <v>188323.8253799875</v>
+      </c>
+      <c r="N18" t="n">
+        <v>188323.8253799875</v>
+      </c>
+      <c r="O18" t="n">
+        <v>188323.8253799875</v>
+      </c>
+      <c r="P18" t="n">
+        <v>188323.8253799875</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>188323.8253799875</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +1421,52 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23922.24660249715</v>
+        <v>189428.6904049901</v>
+      </c>
+      <c r="C19" t="n">
+        <v>189428.6904049901</v>
+      </c>
+      <c r="D19" t="n">
+        <v>189428.6904049901</v>
+      </c>
+      <c r="E19" t="n">
+        <v>189428.6904049901</v>
+      </c>
+      <c r="F19" t="n">
+        <v>189428.6904049901</v>
+      </c>
+      <c r="G19" t="n">
+        <v>189428.6904049901</v>
+      </c>
+      <c r="H19" t="n">
+        <v>189428.6904049901</v>
+      </c>
+      <c r="I19" t="n">
+        <v>189428.6904049901</v>
+      </c>
+      <c r="J19" t="n">
+        <v>189428.6904049901</v>
+      </c>
+      <c r="K19" t="n">
+        <v>189428.6904049901</v>
+      </c>
+      <c r="L19" t="n">
+        <v>189428.6904049901</v>
+      </c>
+      <c r="M19" t="n">
+        <v>189428.6904049901</v>
+      </c>
+      <c r="N19" t="n">
+        <v>189428.6904049901</v>
+      </c>
+      <c r="O19" t="n">
+        <v>189428.6904049901</v>
+      </c>
+      <c r="P19" t="n">
+        <v>189428.6904049901</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>189428.6904049901</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +1474,52 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>24270.47660307633</v>
+        <v>190541.243146714</v>
+      </c>
+      <c r="C20" t="n">
+        <v>190541.243146714</v>
+      </c>
+      <c r="D20" t="n">
+        <v>190541.243146714</v>
+      </c>
+      <c r="E20" t="n">
+        <v>190541.243146714</v>
+      </c>
+      <c r="F20" t="n">
+        <v>190541.243146714</v>
+      </c>
+      <c r="G20" t="n">
+        <v>190541.243146714</v>
+      </c>
+      <c r="H20" t="n">
+        <v>190541.243146714</v>
+      </c>
+      <c r="I20" t="n">
+        <v>190541.243146714</v>
+      </c>
+      <c r="J20" t="n">
+        <v>190541.243146714</v>
+      </c>
+      <c r="K20" t="n">
+        <v>190541.243146714</v>
+      </c>
+      <c r="L20" t="n">
+        <v>190541.243146714</v>
+      </c>
+      <c r="M20" t="n">
+        <v>190541.243146714</v>
+      </c>
+      <c r="N20" t="n">
+        <v>190541.243146714</v>
+      </c>
+      <c r="O20" t="n">
+        <v>190541.243146714</v>
+      </c>
+      <c r="P20" t="n">
+        <v>190541.243146714</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>190541.243146714</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +1527,52 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>24623.930300027</v>
+        <v>191661.5505027026</v>
+      </c>
+      <c r="C21" t="n">
+        <v>191661.5505027026</v>
+      </c>
+      <c r="D21" t="n">
+        <v>191661.5505027026</v>
+      </c>
+      <c r="E21" t="n">
+        <v>191661.5505027026</v>
+      </c>
+      <c r="F21" t="n">
+        <v>191661.5505027026</v>
+      </c>
+      <c r="G21" t="n">
+        <v>191661.5505027026</v>
+      </c>
+      <c r="H21" t="n">
+        <v>191661.5505027026</v>
+      </c>
+      <c r="I21" t="n">
+        <v>191661.5505027026</v>
+      </c>
+      <c r="J21" t="n">
+        <v>191661.5505027026</v>
+      </c>
+      <c r="K21" t="n">
+        <v>191661.5505027026</v>
+      </c>
+      <c r="L21" t="n">
+        <v>191661.5505027026</v>
+      </c>
+      <c r="M21" t="n">
+        <v>191661.5505027026</v>
+      </c>
+      <c r="N21" t="n">
+        <v>191661.5505027026</v>
+      </c>
+      <c r="O21" t="n">
+        <v>191661.5505027026</v>
+      </c>
+      <c r="P21" t="n">
+        <v>191661.5505027026</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>191661.5505027026</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +1580,52 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20258.27494110199</v>
+        <v>173079.3159196076</v>
+      </c>
+      <c r="C22" t="n">
+        <v>173079.3159196076</v>
+      </c>
+      <c r="D22" t="n">
+        <v>173079.3159196076</v>
+      </c>
+      <c r="E22" t="n">
+        <v>173079.3159196076</v>
+      </c>
+      <c r="F22" t="n">
+        <v>173079.3159196076</v>
+      </c>
+      <c r="G22" t="n">
+        <v>173079.3159196076</v>
+      </c>
+      <c r="H22" t="n">
+        <v>173079.3159196076</v>
+      </c>
+      <c r="I22" t="n">
+        <v>173079.3159196076</v>
+      </c>
+      <c r="J22" t="n">
+        <v>173079.3159196076</v>
+      </c>
+      <c r="K22" t="n">
+        <v>173079.3159196076</v>
+      </c>
+      <c r="L22" t="n">
+        <v>173079.3159196076</v>
+      </c>
+      <c r="M22" t="n">
+        <v>173079.3159196076</v>
+      </c>
+      <c r="N22" t="n">
+        <v>173079.3159196076</v>
+      </c>
+      <c r="O22" t="n">
+        <v>173079.3159196076</v>
+      </c>
+      <c r="P22" t="n">
+        <v>173079.3159196076</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>173079.3159196076</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +1633,52 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20549.36180912969</v>
+        <v>174106.336038145</v>
+      </c>
+      <c r="C23" t="n">
+        <v>174106.336038145</v>
+      </c>
+      <c r="D23" t="n">
+        <v>174106.336038145</v>
+      </c>
+      <c r="E23" t="n">
+        <v>174106.336038145</v>
+      </c>
+      <c r="F23" t="n">
+        <v>174106.336038145</v>
+      </c>
+      <c r="G23" t="n">
+        <v>174106.336038145</v>
+      </c>
+      <c r="H23" t="n">
+        <v>174106.336038145</v>
+      </c>
+      <c r="I23" t="n">
+        <v>174106.336038145</v>
+      </c>
+      <c r="J23" t="n">
+        <v>174106.336038145</v>
+      </c>
+      <c r="K23" t="n">
+        <v>174106.336038145</v>
+      </c>
+      <c r="L23" t="n">
+        <v>174106.336038145</v>
+      </c>
+      <c r="M23" t="n">
+        <v>174106.336038145</v>
+      </c>
+      <c r="N23" t="n">
+        <v>174106.336038145</v>
+      </c>
+      <c r="O23" t="n">
+        <v>174106.336038145</v>
+      </c>
+      <c r="P23" t="n">
+        <v>174106.336038145</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>174106.336038145</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +1686,52 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20844.7733120344</v>
+        <v>175140.6330538773</v>
+      </c>
+      <c r="C24" t="n">
+        <v>175140.6330538773</v>
+      </c>
+      <c r="D24" t="n">
+        <v>175140.6330538773</v>
+      </c>
+      <c r="E24" t="n">
+        <v>175140.6330538773</v>
+      </c>
+      <c r="F24" t="n">
+        <v>175140.6330538773</v>
+      </c>
+      <c r="G24" t="n">
+        <v>175140.6330538773</v>
+      </c>
+      <c r="H24" t="n">
+        <v>175140.6330538773</v>
+      </c>
+      <c r="I24" t="n">
+        <v>175140.6330538773</v>
+      </c>
+      <c r="J24" t="n">
+        <v>175140.6330538773</v>
+      </c>
+      <c r="K24" t="n">
+        <v>175140.6330538773</v>
+      </c>
+      <c r="L24" t="n">
+        <v>175140.6330538773</v>
+      </c>
+      <c r="M24" t="n">
+        <v>175140.6330538773</v>
+      </c>
+      <c r="N24" t="n">
+        <v>175140.6330538773</v>
+      </c>
+      <c r="O24" t="n">
+        <v>175140.6330538773</v>
+      </c>
+      <c r="P24" t="n">
+        <v>175140.6330538773</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>175140.6330538773</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +1739,52 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21144.57553217476</v>
+        <v>176182.271559741</v>
+      </c>
+      <c r="C25" t="n">
+        <v>176182.271559741</v>
+      </c>
+      <c r="D25" t="n">
+        <v>176182.271559741</v>
+      </c>
+      <c r="E25" t="n">
+        <v>176182.271559741</v>
+      </c>
+      <c r="F25" t="n">
+        <v>176182.271559741</v>
+      </c>
+      <c r="G25" t="n">
+        <v>176182.271559741</v>
+      </c>
+      <c r="H25" t="n">
+        <v>176182.271559741</v>
+      </c>
+      <c r="I25" t="n">
+        <v>176182.271559741</v>
+      </c>
+      <c r="J25" t="n">
+        <v>176182.271559741</v>
+      </c>
+      <c r="K25" t="n">
+        <v>176182.271559741</v>
+      </c>
+      <c r="L25" t="n">
+        <v>176182.271559741</v>
+      </c>
+      <c r="M25" t="n">
+        <v>176182.271559741</v>
+      </c>
+      <c r="N25" t="n">
+        <v>176182.271559741</v>
+      </c>
+      <c r="O25" t="n">
+        <v>176182.271559741</v>
+      </c>
+      <c r="P25" t="n">
+        <v>176182.271559741</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>176182.271559741</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +1792,52 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>17929.84636809009</v>
+        <v>160500.8199634582</v>
+      </c>
+      <c r="C26" t="n">
+        <v>160500.8199634582</v>
+      </c>
+      <c r="D26" t="n">
+        <v>160500.8199634582</v>
+      </c>
+      <c r="E26" t="n">
+        <v>160500.8199634582</v>
+      </c>
+      <c r="F26" t="n">
+        <v>160500.8199634582</v>
+      </c>
+      <c r="G26" t="n">
+        <v>160500.8199634582</v>
+      </c>
+      <c r="H26" t="n">
+        <v>160500.8199634582</v>
+      </c>
+      <c r="I26" t="n">
+        <v>160500.8199634582</v>
+      </c>
+      <c r="J26" t="n">
+        <v>160500.8199634582</v>
+      </c>
+      <c r="K26" t="n">
+        <v>160500.8199634582</v>
+      </c>
+      <c r="L26" t="n">
+        <v>160500.8199634582</v>
+      </c>
+      <c r="M26" t="n">
+        <v>160500.8199634582</v>
+      </c>
+      <c r="N26" t="n">
+        <v>160500.8199634582</v>
+      </c>
+      <c r="O26" t="n">
+        <v>160500.8199634582</v>
+      </c>
+      <c r="P26" t="n">
+        <v>160500.8199634582</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>160500.8199634582</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +1845,52 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>18183.62218177939</v>
+        <v>161461.1573667099</v>
+      </c>
+      <c r="C27" t="n">
+        <v>161461.1573667099</v>
+      </c>
+      <c r="D27" t="n">
+        <v>161461.1573667099</v>
+      </c>
+      <c r="E27" t="n">
+        <v>161461.1573667099</v>
+      </c>
+      <c r="F27" t="n">
+        <v>161461.1573667099</v>
+      </c>
+      <c r="G27" t="n">
+        <v>161461.1573667099</v>
+      </c>
+      <c r="H27" t="n">
+        <v>161461.1573667099</v>
+      </c>
+      <c r="I27" t="n">
+        <v>161461.1573667099</v>
+      </c>
+      <c r="J27" t="n">
+        <v>161461.1573667099</v>
+      </c>
+      <c r="K27" t="n">
+        <v>161461.1573667099</v>
+      </c>
+      <c r="L27" t="n">
+        <v>161461.1573667099</v>
+      </c>
+      <c r="M27" t="n">
+        <v>161461.1573667099</v>
+      </c>
+      <c r="N27" t="n">
+        <v>161461.1573667099</v>
+      </c>
+      <c r="O27" t="n">
+        <v>161461.1573667099</v>
+      </c>
+      <c r="P27" t="n">
+        <v>161461.1573667099</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>161461.1573667099</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +1898,52 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>18441.12007904556</v>
+        <v>162428.3903389254</v>
+      </c>
+      <c r="C28" t="n">
+        <v>162428.3903389254</v>
+      </c>
+      <c r="D28" t="n">
+        <v>162428.3903389254</v>
+      </c>
+      <c r="E28" t="n">
+        <v>162428.3903389254</v>
+      </c>
+      <c r="F28" t="n">
+        <v>162428.3903389254</v>
+      </c>
+      <c r="G28" t="n">
+        <v>162428.3903389254</v>
+      </c>
+      <c r="H28" t="n">
+        <v>162428.3903389254</v>
+      </c>
+      <c r="I28" t="n">
+        <v>162428.3903389254</v>
+      </c>
+      <c r="J28" t="n">
+        <v>162428.3903389254</v>
+      </c>
+      <c r="K28" t="n">
+        <v>162428.3903389254</v>
+      </c>
+      <c r="L28" t="n">
+        <v>162428.3903389254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>162428.3903389254</v>
+      </c>
+      <c r="N28" t="n">
+        <v>162428.3903389254</v>
+      </c>
+      <c r="O28" t="n">
+        <v>162428.3903389254</v>
+      </c>
+      <c r="P28" t="n">
+        <v>162428.3903389254</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>162428.3903389254</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +1951,52 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>18702.39634096832</v>
+        <v>163402.5809893317</v>
+      </c>
+      <c r="C29" t="n">
+        <v>163402.5809893317</v>
+      </c>
+      <c r="D29" t="n">
+        <v>163402.5809893317</v>
+      </c>
+      <c r="E29" t="n">
+        <v>163402.5809893317</v>
+      </c>
+      <c r="F29" t="n">
+        <v>163402.5809893317</v>
+      </c>
+      <c r="G29" t="n">
+        <v>163402.5809893317</v>
+      </c>
+      <c r="H29" t="n">
+        <v>163402.5809893317</v>
+      </c>
+      <c r="I29" t="n">
+        <v>163402.5809893317</v>
+      </c>
+      <c r="J29" t="n">
+        <v>163402.5809893317</v>
+      </c>
+      <c r="K29" t="n">
+        <v>163402.5809893317</v>
+      </c>
+      <c r="L29" t="n">
+        <v>163402.5809893317</v>
+      </c>
+      <c r="M29" t="n">
+        <v>163402.5809893317</v>
+      </c>
+      <c r="N29" t="n">
+        <v>163402.5809893317</v>
+      </c>
+      <c r="O29" t="n">
+        <v>163402.5809893317</v>
+      </c>
+      <c r="P29" t="n">
+        <v>163402.5809893317</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>163402.5809893317</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +2004,52 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16007.53535121974</v>
+        <v>148104.23976071</v>
+      </c>
+      <c r="C30" t="n">
+        <v>148104.23976071</v>
+      </c>
+      <c r="D30" t="n">
+        <v>148104.23976071</v>
+      </c>
+      <c r="E30" t="n">
+        <v>148104.23976071</v>
+      </c>
+      <c r="F30" t="n">
+        <v>148104.23976071</v>
+      </c>
+      <c r="G30" t="n">
+        <v>148104.23976071</v>
+      </c>
+      <c r="H30" t="n">
+        <v>148104.23976071</v>
+      </c>
+      <c r="I30" t="n">
+        <v>148104.23976071</v>
+      </c>
+      <c r="J30" t="n">
+        <v>148104.23976071</v>
+      </c>
+      <c r="K30" t="n">
+        <v>148104.23976071</v>
+      </c>
+      <c r="L30" t="n">
+        <v>148104.23976071</v>
+      </c>
+      <c r="M30" t="n">
+        <v>148104.23976071</v>
+      </c>
+      <c r="N30" t="n">
+        <v>148104.23976071</v>
+      </c>
+      <c r="O30" t="n">
+        <v>148104.23976071</v>
+      </c>
+      <c r="P30" t="n">
+        <v>148104.23976071</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>148104.23976071</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +2057,52 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16230.14435141091</v>
+        <v>148996.8720257919</v>
+      </c>
+      <c r="C31" t="n">
+        <v>148996.8720257919</v>
+      </c>
+      <c r="D31" t="n">
+        <v>148996.8720257919</v>
+      </c>
+      <c r="E31" t="n">
+        <v>148996.8720257919</v>
+      </c>
+      <c r="F31" t="n">
+        <v>148996.8720257919</v>
+      </c>
+      <c r="G31" t="n">
+        <v>148996.8720257919</v>
+      </c>
+      <c r="H31" t="n">
+        <v>148996.8720257919</v>
+      </c>
+      <c r="I31" t="n">
+        <v>148996.8720257919</v>
+      </c>
+      <c r="J31" t="n">
+        <v>148996.8720257919</v>
+      </c>
+      <c r="K31" t="n">
+        <v>148996.8720257919</v>
+      </c>
+      <c r="L31" t="n">
+        <v>148996.8720257919</v>
+      </c>
+      <c r="M31" t="n">
+        <v>148996.8720257919</v>
+      </c>
+      <c r="N31" t="n">
+        <v>148996.8720257919</v>
+      </c>
+      <c r="O31" t="n">
+        <v>148996.8720257919</v>
+      </c>
+      <c r="P31" t="n">
+        <v>148996.8720257919</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>148996.8720257919</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +2110,52 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>16455.96588614895</v>
+        <v>149895.9891232714</v>
+      </c>
+      <c r="C32" t="n">
+        <v>149895.9891232714</v>
+      </c>
+      <c r="D32" t="n">
+        <v>149895.9891232714</v>
+      </c>
+      <c r="E32" t="n">
+        <v>149895.9891232714</v>
+      </c>
+      <c r="F32" t="n">
+        <v>149895.9891232714</v>
+      </c>
+      <c r="G32" t="n">
+        <v>149895.9891232714</v>
+      </c>
+      <c r="H32" t="n">
+        <v>149895.9891232714</v>
+      </c>
+      <c r="I32" t="n">
+        <v>149895.9891232714</v>
+      </c>
+      <c r="J32" t="n">
+        <v>149895.9891232714</v>
+      </c>
+      <c r="K32" t="n">
+        <v>149895.9891232714</v>
+      </c>
+      <c r="L32" t="n">
+        <v>149895.9891232714</v>
+      </c>
+      <c r="M32" t="n">
+        <v>149895.9891232714</v>
+      </c>
+      <c r="N32" t="n">
+        <v>149895.9891232714</v>
+      </c>
+      <c r="O32" t="n">
+        <v>149895.9891232714</v>
+      </c>
+      <c r="P32" t="n">
+        <v>149895.9891232714</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>149895.9891232714</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +2163,52 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16685.04784328372</v>
+        <v>150801.6502237072</v>
+      </c>
+      <c r="C33" t="n">
+        <v>150801.6502237072</v>
+      </c>
+      <c r="D33" t="n">
+        <v>150801.6502237072</v>
+      </c>
+      <c r="E33" t="n">
+        <v>150801.6502237072</v>
+      </c>
+      <c r="F33" t="n">
+        <v>150801.6502237072</v>
+      </c>
+      <c r="G33" t="n">
+        <v>150801.6502237072</v>
+      </c>
+      <c r="H33" t="n">
+        <v>150801.6502237072</v>
+      </c>
+      <c r="I33" t="n">
+        <v>150801.6502237072</v>
+      </c>
+      <c r="J33" t="n">
+        <v>150801.6502237072</v>
+      </c>
+      <c r="K33" t="n">
+        <v>150801.6502237072</v>
+      </c>
+      <c r="L33" t="n">
+        <v>150801.6502237072</v>
+      </c>
+      <c r="M33" t="n">
+        <v>150801.6502237072</v>
+      </c>
+      <c r="N33" t="n">
+        <v>150801.6502237072</v>
+      </c>
+      <c r="O33" t="n">
+        <v>150801.6502237072</v>
+      </c>
+      <c r="P33" t="n">
+        <v>150801.6502237072</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>150801.6502237072</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +2216,52 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14091.39730857773</v>
+        <v>135861.347561332</v>
+      </c>
+      <c r="C34" t="n">
+        <v>135861.347561332</v>
+      </c>
+      <c r="D34" t="n">
+        <v>135861.347561332</v>
+      </c>
+      <c r="E34" t="n">
+        <v>135861.347561332</v>
+      </c>
+      <c r="F34" t="n">
+        <v>135861.347561332</v>
+      </c>
+      <c r="G34" t="n">
+        <v>135861.347561332</v>
+      </c>
+      <c r="H34" t="n">
+        <v>135861.347561332</v>
+      </c>
+      <c r="I34" t="n">
+        <v>135861.347561332</v>
+      </c>
+      <c r="J34" t="n">
+        <v>135861.347561332</v>
+      </c>
+      <c r="K34" t="n">
+        <v>135861.347561332</v>
+      </c>
+      <c r="L34" t="n">
+        <v>135861.347561332</v>
+      </c>
+      <c r="M34" t="n">
+        <v>135861.347561332</v>
+      </c>
+      <c r="N34" t="n">
+        <v>135861.347561332</v>
+      </c>
+      <c r="O34" t="n">
+        <v>135861.347561332</v>
+      </c>
+      <c r="P34" t="n">
+        <v>135861.347561332</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>135861.347561332</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +2269,52 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14283.29199923833</v>
+        <v>136683.7666657493</v>
+      </c>
+      <c r="C35" t="n">
+        <v>136683.7666657493</v>
+      </c>
+      <c r="D35" t="n">
+        <v>136683.7666657493</v>
+      </c>
+      <c r="E35" t="n">
+        <v>136683.7666657493</v>
+      </c>
+      <c r="F35" t="n">
+        <v>136683.7666657493</v>
+      </c>
+      <c r="G35" t="n">
+        <v>136683.7666657493</v>
+      </c>
+      <c r="H35" t="n">
+        <v>136683.7666657493</v>
+      </c>
+      <c r="I35" t="n">
+        <v>136683.7666657493</v>
+      </c>
+      <c r="J35" t="n">
+        <v>136683.7666657493</v>
+      </c>
+      <c r="K35" t="n">
+        <v>136683.7666657493</v>
+      </c>
+      <c r="L35" t="n">
+        <v>136683.7666657493</v>
+      </c>
+      <c r="M35" t="n">
+        <v>136683.7666657493</v>
+      </c>
+      <c r="N35" t="n">
+        <v>136683.7666657493</v>
+      </c>
+      <c r="O35" t="n">
+        <v>136683.7666657493</v>
+      </c>
+      <c r="P35" t="n">
+        <v>136683.7666657493</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>136683.7666657493</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +2322,52 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14477.90068198882</v>
+        <v>137512.2041241385</v>
+      </c>
+      <c r="C36" t="n">
+        <v>137512.2041241385</v>
+      </c>
+      <c r="D36" t="n">
+        <v>137512.2041241385</v>
+      </c>
+      <c r="E36" t="n">
+        <v>137512.2041241385</v>
+      </c>
+      <c r="F36" t="n">
+        <v>137512.2041241385</v>
+      </c>
+      <c r="G36" t="n">
+        <v>137512.2041241385</v>
+      </c>
+      <c r="H36" t="n">
+        <v>137512.2041241385</v>
+      </c>
+      <c r="I36" t="n">
+        <v>137512.2041241385</v>
+      </c>
+      <c r="J36" t="n">
+        <v>137512.2041241385</v>
+      </c>
+      <c r="K36" t="n">
+        <v>137512.2041241385</v>
+      </c>
+      <c r="L36" t="n">
+        <v>137512.2041241385</v>
+      </c>
+      <c r="M36" t="n">
+        <v>137512.2041241385</v>
+      </c>
+      <c r="N36" t="n">
+        <v>137512.2041241385</v>
+      </c>
+      <c r="O36" t="n">
+        <v>137512.2041241385</v>
+      </c>
+      <c r="P36" t="n">
+        <v>137512.2041241385</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>137512.2041241385</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +2375,52 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14675.26306715643</v>
+        <v>138346.7153141267</v>
+      </c>
+      <c r="C37" t="n">
+        <v>138346.7153141267</v>
+      </c>
+      <c r="D37" t="n">
+        <v>138346.7153141267</v>
+      </c>
+      <c r="E37" t="n">
+        <v>138346.7153141267</v>
+      </c>
+      <c r="F37" t="n">
+        <v>138346.7153141267</v>
+      </c>
+      <c r="G37" t="n">
+        <v>138346.7153141267</v>
+      </c>
+      <c r="H37" t="n">
+        <v>138346.7153141267</v>
+      </c>
+      <c r="I37" t="n">
+        <v>138346.7153141267</v>
+      </c>
+      <c r="J37" t="n">
+        <v>138346.7153141267</v>
+      </c>
+      <c r="K37" t="n">
+        <v>138346.7153141267</v>
+      </c>
+      <c r="L37" t="n">
+        <v>138346.7153141267</v>
+      </c>
+      <c r="M37" t="n">
+        <v>138346.7153141267</v>
+      </c>
+      <c r="N37" t="n">
+        <v>138346.7153141267</v>
+      </c>
+      <c r="O37" t="n">
+        <v>138346.7153141267</v>
+      </c>
+      <c r="P37" t="n">
+        <v>138346.7153141267</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>138346.7153141267</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +2428,52 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12423.22755590747</v>
+        <v>122480.7286725654</v>
+      </c>
+      <c r="C38" t="n">
+        <v>122480.7286725654</v>
+      </c>
+      <c r="D38" t="n">
+        <v>122480.7286725654</v>
+      </c>
+      <c r="E38" t="n">
+        <v>122480.7286725654</v>
+      </c>
+      <c r="F38" t="n">
+        <v>122480.7286725654</v>
+      </c>
+      <c r="G38" t="n">
+        <v>122480.7286725654</v>
+      </c>
+      <c r="H38" t="n">
+        <v>122480.7286725654</v>
+      </c>
+      <c r="I38" t="n">
+        <v>122480.7286725654</v>
+      </c>
+      <c r="J38" t="n">
+        <v>122480.7286725654</v>
+      </c>
+      <c r="K38" t="n">
+        <v>122480.7286725654</v>
+      </c>
+      <c r="L38" t="n">
+        <v>122480.7286725654</v>
+      </c>
+      <c r="M38" t="n">
+        <v>122480.7286725654</v>
+      </c>
+      <c r="N38" t="n">
+        <v>122480.7286725654</v>
+      </c>
+      <c r="O38" t="n">
+        <v>122480.7286725654</v>
+      </c>
+      <c r="P38" t="n">
+        <v>122480.7286725654</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>122480.7286725654</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +2481,52 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12589.07580634261</v>
+        <v>123224.5123121015</v>
+      </c>
+      <c r="C39" t="n">
+        <v>123224.5123121015</v>
+      </c>
+      <c r="D39" t="n">
+        <v>123224.5123121015</v>
+      </c>
+      <c r="E39" t="n">
+        <v>123224.5123121015</v>
+      </c>
+      <c r="F39" t="n">
+        <v>123224.5123121015</v>
+      </c>
+      <c r="G39" t="n">
+        <v>123224.5123121015</v>
+      </c>
+      <c r="H39" t="n">
+        <v>123224.5123121015</v>
+      </c>
+      <c r="I39" t="n">
+        <v>123224.5123121015</v>
+      </c>
+      <c r="J39" t="n">
+        <v>123224.5123121015</v>
+      </c>
+      <c r="K39" t="n">
+        <v>123224.5123121015</v>
+      </c>
+      <c r="L39" t="n">
+        <v>123224.5123121015</v>
+      </c>
+      <c r="M39" t="n">
+        <v>123224.5123121015</v>
+      </c>
+      <c r="N39" t="n">
+        <v>123224.5123121015</v>
+      </c>
+      <c r="O39" t="n">
+        <v>123224.5123121015</v>
+      </c>
+      <c r="P39" t="n">
+        <v>123224.5123121015</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>123224.5123121015</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +2534,52 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12757.22430541976</v>
+        <v>123973.770046724</v>
+      </c>
+      <c r="C40" t="n">
+        <v>123973.770046724</v>
+      </c>
+      <c r="D40" t="n">
+        <v>123973.770046724</v>
+      </c>
+      <c r="E40" t="n">
+        <v>123973.770046724</v>
+      </c>
+      <c r="F40" t="n">
+        <v>123973.770046724</v>
+      </c>
+      <c r="G40" t="n">
+        <v>123973.770046724</v>
+      </c>
+      <c r="H40" t="n">
+        <v>123973.770046724</v>
+      </c>
+      <c r="I40" t="n">
+        <v>123973.770046724</v>
+      </c>
+      <c r="J40" t="n">
+        <v>123973.770046724</v>
+      </c>
+      <c r="K40" t="n">
+        <v>123973.770046724</v>
+      </c>
+      <c r="L40" t="n">
+        <v>123973.770046724</v>
+      </c>
+      <c r="M40" t="n">
+        <v>123973.770046724</v>
+      </c>
+      <c r="N40" t="n">
+        <v>123973.770046724</v>
+      </c>
+      <c r="O40" t="n">
+        <v>123973.770046724</v>
+      </c>
+      <c r="P40" t="n">
+        <v>123973.770046724</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>123973.770046724</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +2587,52 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12927.70609352292</v>
+        <v>124728.5526054347</v>
+      </c>
+      <c r="C41" t="n">
+        <v>124728.5526054347</v>
+      </c>
+      <c r="D41" t="n">
+        <v>124728.5526054347</v>
+      </c>
+      <c r="E41" t="n">
+        <v>124728.5526054347</v>
+      </c>
+      <c r="F41" t="n">
+        <v>124728.5526054347</v>
+      </c>
+      <c r="G41" t="n">
+        <v>124728.5526054347</v>
+      </c>
+      <c r="H41" t="n">
+        <v>124728.5526054347</v>
+      </c>
+      <c r="I41" t="n">
+        <v>124728.5526054347</v>
+      </c>
+      <c r="J41" t="n">
+        <v>124728.5526054347</v>
+      </c>
+      <c r="K41" t="n">
+        <v>124728.5526054347</v>
+      </c>
+      <c r="L41" t="n">
+        <v>124728.5526054347</v>
+      </c>
+      <c r="M41" t="n">
+        <v>124728.5526054347</v>
+      </c>
+      <c r="N41" t="n">
+        <v>124728.5526054347</v>
+      </c>
+      <c r="O41" t="n">
+        <v>124728.5526054347</v>
+      </c>
+      <c r="P41" t="n">
+        <v>124728.5526054347</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>124728.5526054347</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +2640,52 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10941.14606185572</v>
+        <v>109803.5020963861</v>
+      </c>
+      <c r="C42" t="n">
+        <v>109803.5020963861</v>
+      </c>
+      <c r="D42" t="n">
+        <v>109803.5020963861</v>
+      </c>
+      <c r="E42" t="n">
+        <v>109803.5020963861</v>
+      </c>
+      <c r="F42" t="n">
+        <v>109803.5020963861</v>
+      </c>
+      <c r="G42" t="n">
+        <v>109803.5020963861</v>
+      </c>
+      <c r="H42" t="n">
+        <v>109803.5020963861</v>
+      </c>
+      <c r="I42" t="n">
+        <v>109803.5020963861</v>
+      </c>
+      <c r="J42" t="n">
+        <v>109803.5020963861</v>
+      </c>
+      <c r="K42" t="n">
+        <v>109803.5020963861</v>
+      </c>
+      <c r="L42" t="n">
+        <v>109803.5020963861</v>
+      </c>
+      <c r="M42" t="n">
+        <v>109803.5020963861</v>
+      </c>
+      <c r="N42" t="n">
+        <v>109803.5020963861</v>
+      </c>
+      <c r="O42" t="n">
+        <v>109803.5020963861</v>
+      </c>
+      <c r="P42" t="n">
+        <v>109803.5020963861</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>109803.5020963861</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +2693,52 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11084.36429335129</v>
+        <v>110471.8213276492</v>
+      </c>
+      <c r="C43" t="n">
+        <v>110471.8213276492</v>
+      </c>
+      <c r="D43" t="n">
+        <v>110471.8213276492</v>
+      </c>
+      <c r="E43" t="n">
+        <v>110471.8213276492</v>
+      </c>
+      <c r="F43" t="n">
+        <v>110471.8213276492</v>
+      </c>
+      <c r="G43" t="n">
+        <v>110471.8213276492</v>
+      </c>
+      <c r="H43" t="n">
+        <v>110471.8213276492</v>
+      </c>
+      <c r="I43" t="n">
+        <v>110471.8213276492</v>
+      </c>
+      <c r="J43" t="n">
+        <v>110471.8213276492</v>
+      </c>
+      <c r="K43" t="n">
+        <v>110471.8213276492</v>
+      </c>
+      <c r="L43" t="n">
+        <v>110471.8213276492</v>
+      </c>
+      <c r="M43" t="n">
+        <v>110471.8213276492</v>
+      </c>
+      <c r="N43" t="n">
+        <v>110471.8213276492</v>
+      </c>
+      <c r="O43" t="n">
+        <v>110471.8213276492</v>
+      </c>
+      <c r="P43" t="n">
+        <v>110471.8213276492</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>110471.8213276492</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +2746,52 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11229.52971196281</v>
+        <v>111145.0804659971</v>
+      </c>
+      <c r="C44" t="n">
+        <v>111145.0804659971</v>
+      </c>
+      <c r="D44" t="n">
+        <v>111145.0804659971</v>
+      </c>
+      <c r="E44" t="n">
+        <v>111145.0804659971</v>
+      </c>
+      <c r="F44" t="n">
+        <v>111145.0804659971</v>
+      </c>
+      <c r="G44" t="n">
+        <v>111145.0804659971</v>
+      </c>
+      <c r="H44" t="n">
+        <v>111145.0804659971</v>
+      </c>
+      <c r="I44" t="n">
+        <v>111145.0804659971</v>
+      </c>
+      <c r="J44" t="n">
+        <v>111145.0804659971</v>
+      </c>
+      <c r="K44" t="n">
+        <v>111145.0804659971</v>
+      </c>
+      <c r="L44" t="n">
+        <v>111145.0804659971</v>
+      </c>
+      <c r="M44" t="n">
+        <v>111145.0804659971</v>
+      </c>
+      <c r="N44" t="n">
+        <v>111145.0804659971</v>
+      </c>
+      <c r="O44" t="n">
+        <v>111145.0804659971</v>
+      </c>
+      <c r="P44" t="n">
+        <v>111145.0804659971</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>111145.0804659971</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +2799,52 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11376.66974772915</v>
+        <v>111823.3255466836</v>
+      </c>
+      <c r="C45" t="n">
+        <v>111823.3255466836</v>
+      </c>
+      <c r="D45" t="n">
+        <v>111823.3255466836</v>
+      </c>
+      <c r="E45" t="n">
+        <v>111823.3255466836</v>
+      </c>
+      <c r="F45" t="n">
+        <v>111823.3255466836</v>
+      </c>
+      <c r="G45" t="n">
+        <v>111823.3255466836</v>
+      </c>
+      <c r="H45" t="n">
+        <v>111823.3255466836</v>
+      </c>
+      <c r="I45" t="n">
+        <v>111823.3255466836</v>
+      </c>
+      <c r="J45" t="n">
+        <v>111823.3255466836</v>
+      </c>
+      <c r="K45" t="n">
+        <v>111823.3255466836</v>
+      </c>
+      <c r="L45" t="n">
+        <v>111823.3255466836</v>
+      </c>
+      <c r="M45" t="n">
+        <v>111823.3255466836</v>
+      </c>
+      <c r="N45" t="n">
+        <v>111823.3255466836</v>
+      </c>
+      <c r="O45" t="n">
+        <v>111823.3255466836</v>
+      </c>
+      <c r="P45" t="n">
+        <v>111823.3255466836</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>111823.3255466836</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +2852,52 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9479.321722081952</v>
+        <v>95772.08098657407</v>
+      </c>
+      <c r="C46" t="n">
+        <v>95772.08098657407</v>
+      </c>
+      <c r="D46" t="n">
+        <v>95772.08098657407</v>
+      </c>
+      <c r="E46" t="n">
+        <v>95772.08098657407</v>
+      </c>
+      <c r="F46" t="n">
+        <v>95772.08098657407</v>
+      </c>
+      <c r="G46" t="n">
+        <v>95772.08098657407</v>
+      </c>
+      <c r="H46" t="n">
+        <v>95772.08098657407</v>
+      </c>
+      <c r="I46" t="n">
+        <v>95772.08098657407</v>
+      </c>
+      <c r="J46" t="n">
+        <v>95772.08098657407</v>
+      </c>
+      <c r="K46" t="n">
+        <v>95772.08098657407</v>
+      </c>
+      <c r="L46" t="n">
+        <v>95772.08098657407</v>
+      </c>
+      <c r="M46" t="n">
+        <v>95772.08098657407</v>
+      </c>
+      <c r="N46" t="n">
+        <v>95772.08098657407</v>
+      </c>
+      <c r="O46" t="n">
+        <v>95772.08098657407</v>
+      </c>
+      <c r="P46" t="n">
+        <v>95772.08098657407</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>95772.08098657407</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +2905,52 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9600.845249830949</v>
+        <v>96354.90464921751</v>
+      </c>
+      <c r="C47" t="n">
+        <v>96354.90464921751</v>
+      </c>
+      <c r="D47" t="n">
+        <v>96354.90464921751</v>
+      </c>
+      <c r="E47" t="n">
+        <v>96354.90464921751</v>
+      </c>
+      <c r="F47" t="n">
+        <v>96354.90464921751</v>
+      </c>
+      <c r="G47" t="n">
+        <v>96354.90464921751</v>
+      </c>
+      <c r="H47" t="n">
+        <v>96354.90464921751</v>
+      </c>
+      <c r="I47" t="n">
+        <v>96354.90464921751</v>
+      </c>
+      <c r="J47" t="n">
+        <v>96354.90464921751</v>
+      </c>
+      <c r="K47" t="n">
+        <v>96354.90464921751</v>
+      </c>
+      <c r="L47" t="n">
+        <v>96354.90464921751</v>
+      </c>
+      <c r="M47" t="n">
+        <v>96354.90464921751</v>
+      </c>
+      <c r="N47" t="n">
+        <v>96354.90464921751</v>
+      </c>
+      <c r="O47" t="n">
+        <v>96354.90464921751</v>
+      </c>
+      <c r="P47" t="n">
+        <v>96354.90464921751</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>96354.90464921751</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +2958,52 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9723.986422416105</v>
+        <v>96942.04149642984</v>
+      </c>
+      <c r="C48" t="n">
+        <v>96942.04149642984</v>
+      </c>
+      <c r="D48" t="n">
+        <v>96942.04149642984</v>
+      </c>
+      <c r="E48" t="n">
+        <v>96942.04149642984</v>
+      </c>
+      <c r="F48" t="n">
+        <v>96942.04149642984</v>
+      </c>
+      <c r="G48" t="n">
+        <v>96942.04149642984</v>
+      </c>
+      <c r="H48" t="n">
+        <v>96942.04149642984</v>
+      </c>
+      <c r="I48" t="n">
+        <v>96942.04149642984</v>
+      </c>
+      <c r="J48" t="n">
+        <v>96942.04149642984</v>
+      </c>
+      <c r="K48" t="n">
+        <v>96942.04149642984</v>
+      </c>
+      <c r="L48" t="n">
+        <v>96942.04149642984</v>
+      </c>
+      <c r="M48" t="n">
+        <v>96942.04149642984</v>
+      </c>
+      <c r="N48" t="n">
+        <v>96942.04149642984</v>
+      </c>
+      <c r="O48" t="n">
+        <v>96942.04149642984</v>
+      </c>
+      <c r="P48" t="n">
+        <v>96942.04149642984</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>96942.04149642984</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +3011,52 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9848.7675579153</v>
+        <v>97533.53185465201</v>
+      </c>
+      <c r="C49" t="n">
+        <v>97533.53185465201</v>
+      </c>
+      <c r="D49" t="n">
+        <v>97533.53185465201</v>
+      </c>
+      <c r="E49" t="n">
+        <v>97533.53185465201</v>
+      </c>
+      <c r="F49" t="n">
+        <v>97533.53185465201</v>
+      </c>
+      <c r="G49" t="n">
+        <v>97533.53185465201</v>
+      </c>
+      <c r="H49" t="n">
+        <v>97533.53185465201</v>
+      </c>
+      <c r="I49" t="n">
+        <v>97533.53185465201</v>
+      </c>
+      <c r="J49" t="n">
+        <v>97533.53185465201</v>
+      </c>
+      <c r="K49" t="n">
+        <v>97533.53185465201</v>
+      </c>
+      <c r="L49" t="n">
+        <v>97533.53185465201</v>
+      </c>
+      <c r="M49" t="n">
+        <v>97533.53185465201</v>
+      </c>
+      <c r="N49" t="n">
+        <v>97533.53185465201</v>
+      </c>
+      <c r="O49" t="n">
+        <v>97533.53185465201</v>
+      </c>
+      <c r="P49" t="n">
+        <v>97533.53185465201</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>97533.53185465201</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +3064,52 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>8118.496674941716</v>
+        <v>82301.68566914047</v>
+      </c>
+      <c r="C50" t="n">
+        <v>82301.68566914047</v>
+      </c>
+      <c r="D50" t="n">
+        <v>82301.68566914047</v>
+      </c>
+      <c r="E50" t="n">
+        <v>82301.68566914047</v>
+      </c>
+      <c r="F50" t="n">
+        <v>82301.68566914047</v>
+      </c>
+      <c r="G50" t="n">
+        <v>82301.68566914047</v>
+      </c>
+      <c r="H50" t="n">
+        <v>82301.68566914047</v>
+      </c>
+      <c r="I50" t="n">
+        <v>82301.68566914047</v>
+      </c>
+      <c r="J50" t="n">
+        <v>82301.68566914047</v>
+      </c>
+      <c r="K50" t="n">
+        <v>82301.68566914047</v>
+      </c>
+      <c r="L50" t="n">
+        <v>82301.68566914047</v>
+      </c>
+      <c r="M50" t="n">
+        <v>82301.68566914047</v>
+      </c>
+      <c r="N50" t="n">
+        <v>82301.68566914047</v>
+      </c>
+      <c r="O50" t="n">
+        <v>82301.68566914047</v>
+      </c>
+      <c r="P50" t="n">
+        <v>82301.68566914047</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>82301.68566914047</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +3117,52 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>8220.432999450501</v>
+        <v>82801.53322962497</v>
+      </c>
+      <c r="C51" t="n">
+        <v>82801.53322962497</v>
+      </c>
+      <c r="D51" t="n">
+        <v>82801.53322962497</v>
+      </c>
+      <c r="E51" t="n">
+        <v>82801.53322962497</v>
+      </c>
+      <c r="F51" t="n">
+        <v>82801.53322962497</v>
+      </c>
+      <c r="G51" t="n">
+        <v>82801.53322962497</v>
+      </c>
+      <c r="H51" t="n">
+        <v>82801.53322962497</v>
+      </c>
+      <c r="I51" t="n">
+        <v>82801.53322962497</v>
+      </c>
+      <c r="J51" t="n">
+        <v>82801.53322962497</v>
+      </c>
+      <c r="K51" t="n">
+        <v>82801.53322962497</v>
+      </c>
+      <c r="L51" t="n">
+        <v>82801.53322962497</v>
+      </c>
+      <c r="M51" t="n">
+        <v>82801.53322962497</v>
+      </c>
+      <c r="N51" t="n">
+        <v>82801.53322962497</v>
+      </c>
+      <c r="O51" t="n">
+        <v>82801.53322962497</v>
+      </c>
+      <c r="P51" t="n">
+        <v>82801.53322962497</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>82801.53322962497</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +3170,52 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>8323.697354179048</v>
+        <v>83305.07429975754</v>
+      </c>
+      <c r="C52" t="n">
+        <v>83305.07429975754</v>
+      </c>
+      <c r="D52" t="n">
+        <v>83305.07429975754</v>
+      </c>
+      <c r="E52" t="n">
+        <v>83305.07429975754</v>
+      </c>
+      <c r="F52" t="n">
+        <v>83305.07429975754</v>
+      </c>
+      <c r="G52" t="n">
+        <v>83305.07429975754</v>
+      </c>
+      <c r="H52" t="n">
+        <v>83305.07429975754</v>
+      </c>
+      <c r="I52" t="n">
+        <v>83305.07429975754</v>
+      </c>
+      <c r="J52" t="n">
+        <v>83305.07429975754</v>
+      </c>
+      <c r="K52" t="n">
+        <v>83305.07429975754</v>
+      </c>
+      <c r="L52" t="n">
+        <v>83305.07429975754</v>
+      </c>
+      <c r="M52" t="n">
+        <v>83305.07429975754</v>
+      </c>
+      <c r="N52" t="n">
+        <v>83305.07429975754</v>
+      </c>
+      <c r="O52" t="n">
+        <v>83305.07429975754</v>
+      </c>
+      <c r="P52" t="n">
+        <v>83305.07429975754</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>83305.07429975754</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +3223,52 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>8428.307669111868</v>
+        <v>83812.34343281307</v>
+      </c>
+      <c r="C53" t="n">
+        <v>83812.34343281307</v>
+      </c>
+      <c r="D53" t="n">
+        <v>83812.34343281307</v>
+      </c>
+      <c r="E53" t="n">
+        <v>83812.34343281307</v>
+      </c>
+      <c r="F53" t="n">
+        <v>83812.34343281307</v>
+      </c>
+      <c r="G53" t="n">
+        <v>83812.34343281307</v>
+      </c>
+      <c r="H53" t="n">
+        <v>83812.34343281307</v>
+      </c>
+      <c r="I53" t="n">
+        <v>83812.34343281307</v>
+      </c>
+      <c r="J53" t="n">
+        <v>83812.34343281307</v>
+      </c>
+      <c r="K53" t="n">
+        <v>83812.34343281307</v>
+      </c>
+      <c r="L53" t="n">
+        <v>83812.34343281307</v>
+      </c>
+      <c r="M53" t="n">
+        <v>83812.34343281307</v>
+      </c>
+      <c r="N53" t="n">
+        <v>83812.34343281307</v>
+      </c>
+      <c r="O53" t="n">
+        <v>83812.34343281307</v>
+      </c>
+      <c r="P53" t="n">
+        <v>83812.34343281307</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>83812.34343281307</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +3276,52 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6859.155697371019</v>
+        <v>68890.69006263516</v>
+      </c>
+      <c r="C54" t="n">
+        <v>68890.69006263516</v>
+      </c>
+      <c r="D54" t="n">
+        <v>68890.69006263516</v>
+      </c>
+      <c r="E54" t="n">
+        <v>68890.69006263516</v>
+      </c>
+      <c r="F54" t="n">
+        <v>68890.69006263516</v>
+      </c>
+      <c r="G54" t="n">
+        <v>68890.69006263516</v>
+      </c>
+      <c r="H54" t="n">
+        <v>68890.69006263516</v>
+      </c>
+      <c r="I54" t="n">
+        <v>68890.69006263516</v>
+      </c>
+      <c r="J54" t="n">
+        <v>68890.69006263516</v>
+      </c>
+      <c r="K54" t="n">
+        <v>68890.69006263516</v>
+      </c>
+      <c r="L54" t="n">
+        <v>68890.69006263516</v>
+      </c>
+      <c r="M54" t="n">
+        <v>68890.69006263516</v>
+      </c>
+      <c r="N54" t="n">
+        <v>68890.69006263516</v>
+      </c>
+      <c r="O54" t="n">
+        <v>68890.69006263516</v>
+      </c>
+      <c r="P54" t="n">
+        <v>68890.69006263516</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>68890.69006263516</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +3329,52 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6943.667176889052</v>
+        <v>69307.82617516122</v>
+      </c>
+      <c r="C55" t="n">
+        <v>69307.82617516122</v>
+      </c>
+      <c r="D55" t="n">
+        <v>69307.82617516122</v>
+      </c>
+      <c r="E55" t="n">
+        <v>69307.82617516122</v>
+      </c>
+      <c r="F55" t="n">
+        <v>69307.82617516122</v>
+      </c>
+      <c r="G55" t="n">
+        <v>69307.82617516122</v>
+      </c>
+      <c r="H55" t="n">
+        <v>69307.82617516122</v>
+      </c>
+      <c r="I55" t="n">
+        <v>69307.82617516122</v>
+      </c>
+      <c r="J55" t="n">
+        <v>69307.82617516122</v>
+      </c>
+      <c r="K55" t="n">
+        <v>69307.82617516122</v>
+      </c>
+      <c r="L55" t="n">
+        <v>69307.82617516122</v>
+      </c>
+      <c r="M55" t="n">
+        <v>69307.82617516122</v>
+      </c>
+      <c r="N55" t="n">
+        <v>69307.82617516122</v>
+      </c>
+      <c r="O55" t="n">
+        <v>69307.82617516122</v>
+      </c>
+      <c r="P55" t="n">
+        <v>69307.82617516122</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>69307.82617516122</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +3382,52 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7029.258215208859</v>
+        <v>69728.03728992002</v>
+      </c>
+      <c r="C56" t="n">
+        <v>69728.03728992002</v>
+      </c>
+      <c r="D56" t="n">
+        <v>69728.03728992002</v>
+      </c>
+      <c r="E56" t="n">
+        <v>69728.03728992002</v>
+      </c>
+      <c r="F56" t="n">
+        <v>69728.03728992002</v>
+      </c>
+      <c r="G56" t="n">
+        <v>69728.03728992002</v>
+      </c>
+      <c r="H56" t="n">
+        <v>69728.03728992002</v>
+      </c>
+      <c r="I56" t="n">
+        <v>69728.03728992002</v>
+      </c>
+      <c r="J56" t="n">
+        <v>69728.03728992002</v>
+      </c>
+      <c r="K56" t="n">
+        <v>69728.03728992002</v>
+      </c>
+      <c r="L56" t="n">
+        <v>69728.03728992002</v>
+      </c>
+      <c r="M56" t="n">
+        <v>69728.03728992002</v>
+      </c>
+      <c r="N56" t="n">
+        <v>69728.03728992002</v>
+      </c>
+      <c r="O56" t="n">
+        <v>69728.03728992002</v>
+      </c>
+      <c r="P56" t="n">
+        <v>69728.03728992002</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>69728.03728992002</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +3435,52 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7115.943097964426</v>
+        <v>70151.35219430976</v>
+      </c>
+      <c r="C57" t="n">
+        <v>70151.35219430976</v>
+      </c>
+      <c r="D57" t="n">
+        <v>70151.35219430976</v>
+      </c>
+      <c r="E57" t="n">
+        <v>70151.35219430976</v>
+      </c>
+      <c r="F57" t="n">
+        <v>70151.35219430976</v>
+      </c>
+      <c r="G57" t="n">
+        <v>70151.35219430976</v>
+      </c>
+      <c r="H57" t="n">
+        <v>70151.35219430976</v>
+      </c>
+      <c r="I57" t="n">
+        <v>70151.35219430976</v>
+      </c>
+      <c r="J57" t="n">
+        <v>70151.35219430976</v>
+      </c>
+      <c r="K57" t="n">
+        <v>70151.35219430976</v>
+      </c>
+      <c r="L57" t="n">
+        <v>70151.35219430976</v>
+      </c>
+      <c r="M57" t="n">
+        <v>70151.35219430976</v>
+      </c>
+      <c r="N57" t="n">
+        <v>70151.35219430976</v>
+      </c>
+      <c r="O57" t="n">
+        <v>70151.35219430976</v>
+      </c>
+      <c r="P57" t="n">
+        <v>70151.35219430976</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>70151.35219430976</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +3488,52 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5760.128003879281</v>
+        <v>56298.88498329923</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56298.88498329923</v>
+      </c>
+      <c r="D58" t="n">
+        <v>56298.88498329923</v>
+      </c>
+      <c r="E58" t="n">
+        <v>56298.88498329923</v>
+      </c>
+      <c r="F58" t="n">
+        <v>56298.88498329923</v>
+      </c>
+      <c r="G58" t="n">
+        <v>56298.88498329923</v>
+      </c>
+      <c r="H58" t="n">
+        <v>56298.88498329923</v>
+      </c>
+      <c r="I58" t="n">
+        <v>56298.88498329923</v>
+      </c>
+      <c r="J58" t="n">
+        <v>56298.88498329923</v>
+      </c>
+      <c r="K58" t="n">
+        <v>56298.88498329923</v>
+      </c>
+      <c r="L58" t="n">
+        <v>56298.88498329923</v>
+      </c>
+      <c r="M58" t="n">
+        <v>56298.88498329923</v>
+      </c>
+      <c r="N58" t="n">
+        <v>56298.88498329923</v>
+      </c>
+      <c r="O58" t="n">
+        <v>56298.88498329923</v>
+      </c>
+      <c r="P58" t="n">
+        <v>56298.88498329923</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>56298.88498329923</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +3541,52 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5829.693094114606</v>
+        <v>56638.50584372393</v>
+      </c>
+      <c r="C59" t="n">
+        <v>56638.50584372393</v>
+      </c>
+      <c r="D59" t="n">
+        <v>56638.50584372393</v>
+      </c>
+      <c r="E59" t="n">
+        <v>56638.50584372393</v>
+      </c>
+      <c r="F59" t="n">
+        <v>56638.50584372393</v>
+      </c>
+      <c r="G59" t="n">
+        <v>56638.50584372393</v>
+      </c>
+      <c r="H59" t="n">
+        <v>56638.50584372393</v>
+      </c>
+      <c r="I59" t="n">
+        <v>56638.50584372393</v>
+      </c>
+      <c r="J59" t="n">
+        <v>56638.50584372393</v>
+      </c>
+      <c r="K59" t="n">
+        <v>56638.50584372393</v>
+      </c>
+      <c r="L59" t="n">
+        <v>56638.50584372393</v>
+      </c>
+      <c r="M59" t="n">
+        <v>56638.50584372393</v>
+      </c>
+      <c r="N59" t="n">
+        <v>56638.50584372393</v>
+      </c>
+      <c r="O59" t="n">
+        <v>56638.50584372393</v>
+      </c>
+      <c r="P59" t="n">
+        <v>56638.50584372393</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>56638.50584372393</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +3594,52 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5900.128501596695</v>
+        <v>56980.62010941187</v>
+      </c>
+      <c r="C60" t="n">
+        <v>56980.62010941187</v>
+      </c>
+      <c r="D60" t="n">
+        <v>56980.62010941187</v>
+      </c>
+      <c r="E60" t="n">
+        <v>56980.62010941187</v>
+      </c>
+      <c r="F60" t="n">
+        <v>56980.62010941187</v>
+      </c>
+      <c r="G60" t="n">
+        <v>56980.62010941187</v>
+      </c>
+      <c r="H60" t="n">
+        <v>56980.62010941187</v>
+      </c>
+      <c r="I60" t="n">
+        <v>56980.62010941187</v>
+      </c>
+      <c r="J60" t="n">
+        <v>56980.62010941187</v>
+      </c>
+      <c r="K60" t="n">
+        <v>56980.62010941187</v>
+      </c>
+      <c r="L60" t="n">
+        <v>56980.62010941187</v>
+      </c>
+      <c r="M60" t="n">
+        <v>56980.62010941187</v>
+      </c>
+      <c r="N60" t="n">
+        <v>56980.62010941187</v>
+      </c>
+      <c r="O60" t="n">
+        <v>56980.62010941187</v>
+      </c>
+      <c r="P60" t="n">
+        <v>56980.62010941187</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>56980.62010941187</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +3647,52 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5971.445501968554</v>
+        <v>57325.251081164</v>
+      </c>
+      <c r="C61" t="n">
+        <v>57325.251081164</v>
+      </c>
+      <c r="D61" t="n">
+        <v>57325.251081164</v>
+      </c>
+      <c r="E61" t="n">
+        <v>57325.251081164</v>
+      </c>
+      <c r="F61" t="n">
+        <v>57325.251081164</v>
+      </c>
+      <c r="G61" t="n">
+        <v>57325.251081164</v>
+      </c>
+      <c r="H61" t="n">
+        <v>57325.251081164</v>
+      </c>
+      <c r="I61" t="n">
+        <v>57325.251081164</v>
+      </c>
+      <c r="J61" t="n">
+        <v>57325.251081164</v>
+      </c>
+      <c r="K61" t="n">
+        <v>57325.251081164</v>
+      </c>
+      <c r="L61" t="n">
+        <v>57325.251081164</v>
+      </c>
+      <c r="M61" t="n">
+        <v>57325.251081164</v>
+      </c>
+      <c r="N61" t="n">
+        <v>57325.251081164</v>
+      </c>
+      <c r="O61" t="n">
+        <v>57325.251081164</v>
+      </c>
+      <c r="P61" t="n">
+        <v>57325.251081164</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>57325.251081164</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +3700,52 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4744.612225379989</v>
+        <v>44441.73338630861</v>
+      </c>
+      <c r="C62" t="n">
+        <v>44441.73338630861</v>
+      </c>
+      <c r="D62" t="n">
+        <v>44441.73338630861</v>
+      </c>
+      <c r="E62" t="n">
+        <v>44441.73338630861</v>
+      </c>
+      <c r="F62" t="n">
+        <v>44441.73338630861</v>
+      </c>
+      <c r="G62" t="n">
+        <v>44441.73338630861</v>
+      </c>
+      <c r="H62" t="n">
+        <v>44441.73338630861</v>
+      </c>
+      <c r="I62" t="n">
+        <v>44441.73338630861</v>
+      </c>
+      <c r="J62" t="n">
+        <v>44441.73338630861</v>
+      </c>
+      <c r="K62" t="n">
+        <v>44441.73338630861</v>
+      </c>
+      <c r="L62" t="n">
+        <v>44441.73338630861</v>
+      </c>
+      <c r="M62" t="n">
+        <v>44441.73338630861</v>
+      </c>
+      <c r="N62" t="n">
+        <v>44441.73338630861</v>
+      </c>
+      <c r="O62" t="n">
+        <v>44441.73338630861</v>
+      </c>
+      <c r="P62" t="n">
+        <v>44441.73338630861</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>44441.73338630861</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +3753,52 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4800.876131063118</v>
+        <v>44708.48367209614</v>
+      </c>
+      <c r="C63" t="n">
+        <v>44708.48367209614</v>
+      </c>
+      <c r="D63" t="n">
+        <v>44708.48367209614</v>
+      </c>
+      <c r="E63" t="n">
+        <v>44708.48367209614</v>
+      </c>
+      <c r="F63" t="n">
+        <v>44708.48367209614</v>
+      </c>
+      <c r="G63" t="n">
+        <v>44708.48367209614</v>
+      </c>
+      <c r="H63" t="n">
+        <v>44708.48367209614</v>
+      </c>
+      <c r="I63" t="n">
+        <v>44708.48367209614</v>
+      </c>
+      <c r="J63" t="n">
+        <v>44708.48367209614</v>
+      </c>
+      <c r="K63" t="n">
+        <v>44708.48367209614</v>
+      </c>
+      <c r="L63" t="n">
+        <v>44708.48367209614</v>
+      </c>
+      <c r="M63" t="n">
+        <v>44708.48367209614</v>
+      </c>
+      <c r="N63" t="n">
+        <v>44708.48367209614</v>
+      </c>
+      <c r="O63" t="n">
+        <v>44708.48367209614</v>
+      </c>
+      <c r="P63" t="n">
+        <v>44708.48367209614</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>44708.48367209614</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +3806,52 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4847.821828809383</v>
+        <v>44957.16355704121</v>
+      </c>
+      <c r="C64" t="n">
+        <v>44957.16355704121</v>
+      </c>
+      <c r="D64" t="n">
+        <v>44957.16355704121</v>
+      </c>
+      <c r="E64" t="n">
+        <v>44957.16355704121</v>
+      </c>
+      <c r="F64" t="n">
+        <v>44957.16355704121</v>
+      </c>
+      <c r="G64" t="n">
+        <v>44957.16355704121</v>
+      </c>
+      <c r="H64" t="n">
+        <v>44957.16355704121</v>
+      </c>
+      <c r="I64" t="n">
+        <v>44957.16355704121</v>
+      </c>
+      <c r="J64" t="n">
+        <v>44957.16355704121</v>
+      </c>
+      <c r="K64" t="n">
+        <v>44957.16355704121</v>
+      </c>
+      <c r="L64" t="n">
+        <v>44957.16355704121</v>
+      </c>
+      <c r="M64" t="n">
+        <v>44957.16355704121</v>
+      </c>
+      <c r="N64" t="n">
+        <v>44957.16355704121</v>
+      </c>
+      <c r="O64" t="n">
+        <v>44957.16355704121</v>
+      </c>
+      <c r="P64" t="n">
+        <v>44957.16355704121</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>44957.16355704121</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +3859,52 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4893.238685482648</v>
+        <v>45203.35236606126</v>
+      </c>
+      <c r="C65" t="n">
+        <v>45203.35236606126</v>
+      </c>
+      <c r="D65" t="n">
+        <v>45203.35236606126</v>
+      </c>
+      <c r="E65" t="n">
+        <v>45203.35236606126</v>
+      </c>
+      <c r="F65" t="n">
+        <v>45203.35236606126</v>
+      </c>
+      <c r="G65" t="n">
+        <v>45203.35236606126</v>
+      </c>
+      <c r="H65" t="n">
+        <v>45203.35236606126</v>
+      </c>
+      <c r="I65" t="n">
+        <v>45203.35236606126</v>
+      </c>
+      <c r="J65" t="n">
+        <v>45203.35236606126</v>
+      </c>
+      <c r="K65" t="n">
+        <v>45203.35236606126</v>
+      </c>
+      <c r="L65" t="n">
+        <v>45203.35236606126</v>
+      </c>
+      <c r="M65" t="n">
+        <v>45203.35236606126</v>
+      </c>
+      <c r="N65" t="n">
+        <v>45203.35236606126</v>
+      </c>
+      <c r="O65" t="n">
+        <v>45203.35236606126</v>
+      </c>
+      <c r="P65" t="n">
+        <v>45203.35236606126</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>45203.35236606126</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +3912,52 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3884.724971721007</v>
+        <v>34689.00656471887</v>
+      </c>
+      <c r="C66" t="n">
+        <v>34689.00656471887</v>
+      </c>
+      <c r="D66" t="n">
+        <v>34689.00656471887</v>
+      </c>
+      <c r="E66" t="n">
+        <v>34689.00656471887</v>
+      </c>
+      <c r="F66" t="n">
+        <v>34689.00656471887</v>
+      </c>
+      <c r="G66" t="n">
+        <v>34689.00656471887</v>
+      </c>
+      <c r="H66" t="n">
+        <v>34689.00656471887</v>
+      </c>
+      <c r="I66" t="n">
+        <v>34689.00656471887</v>
+      </c>
+      <c r="J66" t="n">
+        <v>34689.00656471887</v>
+      </c>
+      <c r="K66" t="n">
+        <v>34689.00656471887</v>
+      </c>
+      <c r="L66" t="n">
+        <v>34689.00656471887</v>
+      </c>
+      <c r="M66" t="n">
+        <v>34689.00656471887</v>
+      </c>
+      <c r="N66" t="n">
+        <v>34689.00656471887</v>
+      </c>
+      <c r="O66" t="n">
+        <v>34689.00656471887</v>
+      </c>
+      <c r="P66" t="n">
+        <v>34689.00656471887</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>34689.00656471887</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +3965,52 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3920.859653269823</v>
+        <v>34877.73219927093</v>
+      </c>
+      <c r="C67" t="n">
+        <v>34877.73219927093</v>
+      </c>
+      <c r="D67" t="n">
+        <v>34877.73219927093</v>
+      </c>
+      <c r="E67" t="n">
+        <v>34877.73219927093</v>
+      </c>
+      <c r="F67" t="n">
+        <v>34877.73219927093</v>
+      </c>
+      <c r="G67" t="n">
+        <v>34877.73219927093</v>
+      </c>
+      <c r="H67" t="n">
+        <v>34877.73219927093</v>
+      </c>
+      <c r="I67" t="n">
+        <v>34877.73219927093</v>
+      </c>
+      <c r="J67" t="n">
+        <v>34877.73219927093</v>
+      </c>
+      <c r="K67" t="n">
+        <v>34877.73219927093</v>
+      </c>
+      <c r="L67" t="n">
+        <v>34877.73219927093</v>
+      </c>
+      <c r="M67" t="n">
+        <v>34877.73219927093</v>
+      </c>
+      <c r="N67" t="n">
+        <v>34877.73219927093</v>
+      </c>
+      <c r="O67" t="n">
+        <v>34877.73219927093</v>
+      </c>
+      <c r="P67" t="n">
+        <v>34877.73219927093</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>34877.73219927093</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +4018,52 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3957.359889241757</v>
+        <v>35067.59777382004</v>
+      </c>
+      <c r="C68" t="n">
+        <v>35067.59777382004</v>
+      </c>
+      <c r="D68" t="n">
+        <v>35067.59777382004</v>
+      </c>
+      <c r="E68" t="n">
+        <v>35067.59777382004</v>
+      </c>
+      <c r="F68" t="n">
+        <v>35067.59777382004</v>
+      </c>
+      <c r="G68" t="n">
+        <v>35067.59777382004</v>
+      </c>
+      <c r="H68" t="n">
+        <v>35067.59777382004</v>
+      </c>
+      <c r="I68" t="n">
+        <v>35067.59777382004</v>
+      </c>
+      <c r="J68" t="n">
+        <v>35067.59777382004</v>
+      </c>
+      <c r="K68" t="n">
+        <v>35067.59777382004</v>
+      </c>
+      <c r="L68" t="n">
+        <v>35067.59777382004</v>
+      </c>
+      <c r="M68" t="n">
+        <v>35067.59777382004</v>
+      </c>
+      <c r="N68" t="n">
+        <v>35067.59777382004</v>
+      </c>
+      <c r="O68" t="n">
+        <v>35067.59777382004</v>
+      </c>
+      <c r="P68" t="n">
+        <v>35067.59777382004</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>35067.59777382004</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +4071,52 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3994.229608404523</v>
+        <v>35258.61144084878</v>
+      </c>
+      <c r="C69" t="n">
+        <v>35258.61144084878</v>
+      </c>
+      <c r="D69" t="n">
+        <v>35258.61144084878</v>
+      </c>
+      <c r="E69" t="n">
+        <v>35258.61144084878</v>
+      </c>
+      <c r="F69" t="n">
+        <v>35258.61144084878</v>
+      </c>
+      <c r="G69" t="n">
+        <v>35258.61144084878</v>
+      </c>
+      <c r="H69" t="n">
+        <v>35258.61144084878</v>
+      </c>
+      <c r="I69" t="n">
+        <v>35258.61144084878</v>
+      </c>
+      <c r="J69" t="n">
+        <v>35258.61144084878</v>
+      </c>
+      <c r="K69" t="n">
+        <v>35258.61144084878</v>
+      </c>
+      <c r="L69" t="n">
+        <v>35258.61144084878</v>
+      </c>
+      <c r="M69" t="n">
+        <v>35258.61144084878</v>
+      </c>
+      <c r="N69" t="n">
+        <v>35258.61144084878</v>
+      </c>
+      <c r="O69" t="n">
+        <v>35258.61144084878</v>
+      </c>
+      <c r="P69" t="n">
+        <v>35258.61144084878</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>35258.61144084878</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +4124,52 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3037.421694306061</v>
+        <v>25724.96903454819</v>
+      </c>
+      <c r="C70" t="n">
+        <v>25724.96903454819</v>
+      </c>
+      <c r="D70" t="n">
+        <v>25724.96903454819</v>
+      </c>
+      <c r="E70" t="n">
+        <v>25724.96903454819</v>
+      </c>
+      <c r="F70" t="n">
+        <v>25724.96903454819</v>
+      </c>
+      <c r="G70" t="n">
+        <v>25724.96903454819</v>
+      </c>
+      <c r="H70" t="n">
+        <v>25724.96903454819</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25724.96903454819</v>
+      </c>
+      <c r="J70" t="n">
+        <v>25724.96903454819</v>
+      </c>
+      <c r="K70" t="n">
+        <v>25724.96903454819</v>
+      </c>
+      <c r="L70" t="n">
+        <v>25724.96903454819</v>
+      </c>
+      <c r="M70" t="n">
+        <v>25724.96903454819</v>
+      </c>
+      <c r="N70" t="n">
+        <v>25724.96903454819</v>
+      </c>
+      <c r="O70" t="n">
+        <v>25724.96903454819</v>
+      </c>
+      <c r="P70" t="n">
+        <v>25724.96903454819</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>25724.96903454819</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +4177,52 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3065.426390917758</v>
+        <v>25863.33976958836</v>
+      </c>
+      <c r="C71" t="n">
+        <v>25863.33976958836</v>
+      </c>
+      <c r="D71" t="n">
+        <v>25863.33976958836</v>
+      </c>
+      <c r="E71" t="n">
+        <v>25863.33976958836</v>
+      </c>
+      <c r="F71" t="n">
+        <v>25863.33976958836</v>
+      </c>
+      <c r="G71" t="n">
+        <v>25863.33976958836</v>
+      </c>
+      <c r="H71" t="n">
+        <v>25863.33976958836</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25863.33976958836</v>
+      </c>
+      <c r="J71" t="n">
+        <v>25863.33976958836</v>
+      </c>
+      <c r="K71" t="n">
+        <v>25863.33976958836</v>
+      </c>
+      <c r="L71" t="n">
+        <v>25863.33976958836</v>
+      </c>
+      <c r="M71" t="n">
+        <v>25863.33976958836</v>
+      </c>
+      <c r="N71" t="n">
+        <v>25863.33976958836</v>
+      </c>
+      <c r="O71" t="n">
+        <v>25863.33976958836</v>
+      </c>
+      <c r="P71" t="n">
+        <v>25863.33976958836</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>25863.33976958836</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +4230,52 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3093.709160994309</v>
+        <v>26002.52853557145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>26002.52853557145</v>
+      </c>
+      <c r="D72" t="n">
+        <v>26002.52853557145</v>
+      </c>
+      <c r="E72" t="n">
+        <v>26002.52853557145</v>
+      </c>
+      <c r="F72" t="n">
+        <v>26002.52853557145</v>
+      </c>
+      <c r="G72" t="n">
+        <v>26002.52853557145</v>
+      </c>
+      <c r="H72" t="n">
+        <v>26002.52853557145</v>
+      </c>
+      <c r="I72" t="n">
+        <v>26002.52853557145</v>
+      </c>
+      <c r="J72" t="n">
+        <v>26002.52853557145</v>
+      </c>
+      <c r="K72" t="n">
+        <v>26002.52853557145</v>
+      </c>
+      <c r="L72" t="n">
+        <v>26002.52853557145</v>
+      </c>
+      <c r="M72" t="n">
+        <v>26002.52853557145</v>
+      </c>
+      <c r="N72" t="n">
+        <v>26002.52853557145</v>
+      </c>
+      <c r="O72" t="n">
+        <v>26002.52853557145</v>
+      </c>
+      <c r="P72" t="n">
+        <v>26002.52853557145</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>26002.52853557145</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +4283,52 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3122.272913069933</v>
+        <v>26142.54100375264</v>
+      </c>
+      <c r="C73" t="n">
+        <v>26142.54100375264</v>
+      </c>
+      <c r="D73" t="n">
+        <v>26142.54100375264</v>
+      </c>
+      <c r="E73" t="n">
+        <v>26142.54100375264</v>
+      </c>
+      <c r="F73" t="n">
+        <v>26142.54100375264</v>
+      </c>
+      <c r="G73" t="n">
+        <v>26142.54100375264</v>
+      </c>
+      <c r="H73" t="n">
+        <v>26142.54100375264</v>
+      </c>
+      <c r="I73" t="n">
+        <v>26142.54100375264</v>
+      </c>
+      <c r="J73" t="n">
+        <v>26142.54100375264</v>
+      </c>
+      <c r="K73" t="n">
+        <v>26142.54100375264</v>
+      </c>
+      <c r="L73" t="n">
+        <v>26142.54100375264</v>
+      </c>
+      <c r="M73" t="n">
+        <v>26142.54100375264</v>
+      </c>
+      <c r="N73" t="n">
+        <v>26142.54100375264</v>
+      </c>
+      <c r="O73" t="n">
+        <v>26142.54100375264</v>
+      </c>
+      <c r="P73" t="n">
+        <v>26142.54100375264</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>26142.54100375264</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +4336,52 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2362.235482449563</v>
+        <v>18780.08785691184</v>
+      </c>
+      <c r="C74" t="n">
+        <v>18780.08785691184</v>
+      </c>
+      <c r="D74" t="n">
+        <v>18780.08785691184</v>
+      </c>
+      <c r="E74" t="n">
+        <v>18780.08785691184</v>
+      </c>
+      <c r="F74" t="n">
+        <v>18780.08785691184</v>
+      </c>
+      <c r="G74" t="n">
+        <v>18780.08785691184</v>
+      </c>
+      <c r="H74" t="n">
+        <v>18780.08785691184</v>
+      </c>
+      <c r="I74" t="n">
+        <v>18780.08785691184</v>
+      </c>
+      <c r="J74" t="n">
+        <v>18780.08785691184</v>
+      </c>
+      <c r="K74" t="n">
+        <v>18780.08785691184</v>
+      </c>
+      <c r="L74" t="n">
+        <v>18780.08785691184</v>
+      </c>
+      <c r="M74" t="n">
+        <v>18780.08785691184</v>
+      </c>
+      <c r="N74" t="n">
+        <v>18780.08785691184</v>
+      </c>
+      <c r="O74" t="n">
+        <v>18780.08785691184</v>
+      </c>
+      <c r="P74" t="n">
+        <v>18780.08785691184</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>18780.08785691184</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +4389,52 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2384.041667748964</v>
+        <v>18880.14150855822</v>
+      </c>
+      <c r="C75" t="n">
+        <v>18880.14150855822</v>
+      </c>
+      <c r="D75" t="n">
+        <v>18880.14150855822</v>
+      </c>
+      <c r="E75" t="n">
+        <v>18880.14150855822</v>
+      </c>
+      <c r="F75" t="n">
+        <v>18880.14150855822</v>
+      </c>
+      <c r="G75" t="n">
+        <v>18880.14150855822</v>
+      </c>
+      <c r="H75" t="n">
+        <v>18880.14150855822</v>
+      </c>
+      <c r="I75" t="n">
+        <v>18880.14150855822</v>
+      </c>
+      <c r="J75" t="n">
+        <v>18880.14150855822</v>
+      </c>
+      <c r="K75" t="n">
+        <v>18880.14150855822</v>
+      </c>
+      <c r="L75" t="n">
+        <v>18880.14150855822</v>
+      </c>
+      <c r="M75" t="n">
+        <v>18880.14150855822</v>
+      </c>
+      <c r="N75" t="n">
+        <v>18880.14150855822</v>
+      </c>
+      <c r="O75" t="n">
+        <v>18880.14150855822</v>
+      </c>
+      <c r="P75" t="n">
+        <v>18880.14150855822</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>18880.14150855822</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +4442,52 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2406.062212707121</v>
+        <v>18980.77577659125</v>
+      </c>
+      <c r="C76" t="n">
+        <v>18980.77577659125</v>
+      </c>
+      <c r="D76" t="n">
+        <v>18980.77577659125</v>
+      </c>
+      <c r="E76" t="n">
+        <v>18980.77577659125</v>
+      </c>
+      <c r="F76" t="n">
+        <v>18980.77577659125</v>
+      </c>
+      <c r="G76" t="n">
+        <v>18980.77577659125</v>
+      </c>
+      <c r="H76" t="n">
+        <v>18980.77577659125</v>
+      </c>
+      <c r="I76" t="n">
+        <v>18980.77577659125</v>
+      </c>
+      <c r="J76" t="n">
+        <v>18980.77577659125</v>
+      </c>
+      <c r="K76" t="n">
+        <v>18980.77577659125</v>
+      </c>
+      <c r="L76" t="n">
+        <v>18980.77577659125</v>
+      </c>
+      <c r="M76" t="n">
+        <v>18980.77577659125</v>
+      </c>
+      <c r="N76" t="n">
+        <v>18980.77577659125</v>
+      </c>
+      <c r="O76" t="n">
+        <v>18980.77577659125</v>
+      </c>
+      <c r="P76" t="n">
+        <v>18980.77577659125</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>18980.77577659125</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +4495,52 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2428.299316372356</v>
+        <v>19081.99457413704</v>
+      </c>
+      <c r="C77" t="n">
+        <v>19081.99457413704</v>
+      </c>
+      <c r="D77" t="n">
+        <v>19081.99457413704</v>
+      </c>
+      <c r="E77" t="n">
+        <v>19081.99457413704</v>
+      </c>
+      <c r="F77" t="n">
+        <v>19081.99457413704</v>
+      </c>
+      <c r="G77" t="n">
+        <v>19081.99457413704</v>
+      </c>
+      <c r="H77" t="n">
+        <v>19081.99457413704</v>
+      </c>
+      <c r="I77" t="n">
+        <v>19081.99457413704</v>
+      </c>
+      <c r="J77" t="n">
+        <v>19081.99457413704</v>
+      </c>
+      <c r="K77" t="n">
+        <v>19081.99457413704</v>
+      </c>
+      <c r="L77" t="n">
+        <v>19081.99457413704</v>
+      </c>
+      <c r="M77" t="n">
+        <v>19081.99457413704</v>
+      </c>
+      <c r="N77" t="n">
+        <v>19081.99457413704</v>
+      </c>
+      <c r="O77" t="n">
+        <v>19081.99457413704</v>
+      </c>
+      <c r="P77" t="n">
+        <v>19081.99457413704</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>19081.99457413704</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +4548,52 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1824.289659859567</v>
+        <v>13163.2735413379</v>
+      </c>
+      <c r="C78" t="n">
+        <v>13163.2735413379</v>
+      </c>
+      <c r="D78" t="n">
+        <v>13163.2735413379</v>
+      </c>
+      <c r="E78" t="n">
+        <v>13163.2735413379</v>
+      </c>
+      <c r="F78" t="n">
+        <v>13163.2735413379</v>
+      </c>
+      <c r="G78" t="n">
+        <v>13163.2735413379</v>
+      </c>
+      <c r="H78" t="n">
+        <v>13163.2735413379</v>
+      </c>
+      <c r="I78" t="n">
+        <v>13163.2735413379</v>
+      </c>
+      <c r="J78" t="n">
+        <v>13163.2735413379</v>
+      </c>
+      <c r="K78" t="n">
+        <v>13163.2735413379</v>
+      </c>
+      <c r="L78" t="n">
+        <v>13163.2735413379</v>
+      </c>
+      <c r="M78" t="n">
+        <v>13163.2735413379</v>
+      </c>
+      <c r="N78" t="n">
+        <v>13163.2735413379</v>
+      </c>
+      <c r="O78" t="n">
+        <v>13163.2735413379</v>
+      </c>
+      <c r="P78" t="n">
+        <v>13163.2735413379</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>13163.2735413379</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +4601,52 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1841.097040858078</v>
+        <v>13232.75249377625</v>
+      </c>
+      <c r="C79" t="n">
+        <v>13232.75249377625</v>
+      </c>
+      <c r="D79" t="n">
+        <v>13232.75249377625</v>
+      </c>
+      <c r="E79" t="n">
+        <v>13232.75249377625</v>
+      </c>
+      <c r="F79" t="n">
+        <v>13232.75249377625</v>
+      </c>
+      <c r="G79" t="n">
+        <v>13232.75249377625</v>
+      </c>
+      <c r="H79" t="n">
+        <v>13232.75249377625</v>
+      </c>
+      <c r="I79" t="n">
+        <v>13232.75249377625</v>
+      </c>
+      <c r="J79" t="n">
+        <v>13232.75249377625</v>
+      </c>
+      <c r="K79" t="n">
+        <v>13232.75249377625</v>
+      </c>
+      <c r="L79" t="n">
+        <v>13232.75249377625</v>
+      </c>
+      <c r="M79" t="n">
+        <v>13232.75249377625</v>
+      </c>
+      <c r="N79" t="n">
+        <v>13232.75249377625</v>
+      </c>
+      <c r="O79" t="n">
+        <v>13232.75249377625</v>
+      </c>
+      <c r="P79" t="n">
+        <v>13232.75249377625</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>13232.75249377625</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +4654,52 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1858.068061662112</v>
+        <v>13302.62720173644</v>
+      </c>
+      <c r="C80" t="n">
+        <v>13302.62720173644</v>
+      </c>
+      <c r="D80" t="n">
+        <v>13302.62720173644</v>
+      </c>
+      <c r="E80" t="n">
+        <v>13302.62720173644</v>
+      </c>
+      <c r="F80" t="n">
+        <v>13302.62720173644</v>
+      </c>
+      <c r="G80" t="n">
+        <v>13302.62720173644</v>
+      </c>
+      <c r="H80" t="n">
+        <v>13302.62720173644</v>
+      </c>
+      <c r="I80" t="n">
+        <v>13302.62720173644</v>
+      </c>
+      <c r="J80" t="n">
+        <v>13302.62720173644</v>
+      </c>
+      <c r="K80" t="n">
+        <v>13302.62720173644</v>
+      </c>
+      <c r="L80" t="n">
+        <v>13302.62720173644</v>
+      </c>
+      <c r="M80" t="n">
+        <v>13302.62720173644</v>
+      </c>
+      <c r="N80" t="n">
+        <v>13302.62720173644</v>
+      </c>
+      <c r="O80" t="n">
+        <v>13302.62720173644</v>
+      </c>
+      <c r="P80" t="n">
+        <v>13302.62720173644</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>13302.62720173644</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +4707,52 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1875.204374168957</v>
+        <v>13372.90025442747</v>
+      </c>
+      <c r="C81" t="n">
+        <v>13372.90025442747</v>
+      </c>
+      <c r="D81" t="n">
+        <v>13372.90025442747</v>
+      </c>
+      <c r="E81" t="n">
+        <v>13372.90025442747</v>
+      </c>
+      <c r="F81" t="n">
+        <v>13372.90025442747</v>
+      </c>
+      <c r="G81" t="n">
+        <v>13372.90025442747</v>
+      </c>
+      <c r="H81" t="n">
+        <v>13372.90025442747</v>
+      </c>
+      <c r="I81" t="n">
+        <v>13372.90025442747</v>
+      </c>
+      <c r="J81" t="n">
+        <v>13372.90025442747</v>
+      </c>
+      <c r="K81" t="n">
+        <v>13372.90025442747</v>
+      </c>
+      <c r="L81" t="n">
+        <v>13372.90025442747</v>
+      </c>
+      <c r="M81" t="n">
+        <v>13372.90025442747</v>
+      </c>
+      <c r="N81" t="n">
+        <v>13372.90025442747</v>
+      </c>
+      <c r="O81" t="n">
+        <v>13372.90025442747</v>
+      </c>
+      <c r="P81" t="n">
+        <v>13372.90025442747</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>13372.90025442747</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +4760,52 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1358.179651248518</v>
+        <v>8877.122635105387</v>
+      </c>
+      <c r="C82" t="n">
+        <v>8877.122635105387</v>
+      </c>
+      <c r="D82" t="n">
+        <v>8877.122635105387</v>
+      </c>
+      <c r="E82" t="n">
+        <v>8877.122635105387</v>
+      </c>
+      <c r="F82" t="n">
+        <v>8877.122635105387</v>
+      </c>
+      <c r="G82" t="n">
+        <v>8877.122635105387</v>
+      </c>
+      <c r="H82" t="n">
+        <v>8877.122635105387</v>
+      </c>
+      <c r="I82" t="n">
+        <v>8877.122635105387</v>
+      </c>
+      <c r="J82" t="n">
+        <v>8877.122635105387</v>
+      </c>
+      <c r="K82" t="n">
+        <v>8877.122635105387</v>
+      </c>
+      <c r="L82" t="n">
+        <v>8877.122635105387</v>
+      </c>
+      <c r="M82" t="n">
+        <v>8877.122635105387</v>
+      </c>
+      <c r="N82" t="n">
+        <v>8877.122635105387</v>
+      </c>
+      <c r="O82" t="n">
+        <v>8877.122635105387</v>
+      </c>
+      <c r="P82" t="n">
+        <v>8877.122635105387</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>8877.122635105387</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +4813,52 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1370.79289539823</v>
+        <v>8923.553501516168</v>
+      </c>
+      <c r="C83" t="n">
+        <v>8923.553501516168</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8923.553501516168</v>
+      </c>
+      <c r="E83" t="n">
+        <v>8923.553501516168</v>
+      </c>
+      <c r="F83" t="n">
+        <v>8923.553501516168</v>
+      </c>
+      <c r="G83" t="n">
+        <v>8923.553501516168</v>
+      </c>
+      <c r="H83" t="n">
+        <v>8923.553501516168</v>
+      </c>
+      <c r="I83" t="n">
+        <v>8923.553501516168</v>
+      </c>
+      <c r="J83" t="n">
+        <v>8923.553501516168</v>
+      </c>
+      <c r="K83" t="n">
+        <v>8923.553501516168</v>
+      </c>
+      <c r="L83" t="n">
+        <v>8923.553501516168</v>
+      </c>
+      <c r="M83" t="n">
+        <v>8923.553501516168</v>
+      </c>
+      <c r="N83" t="n">
+        <v>8923.553501516168</v>
+      </c>
+      <c r="O83" t="n">
+        <v>8923.553501516168</v>
+      </c>
+      <c r="P83" t="n">
+        <v>8923.553501516168</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>8923.553501516168</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +4866,52 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1383.528683902173</v>
+        <v>8970.243939280372</v>
+      </c>
+      <c r="C84" t="n">
+        <v>8970.243939280372</v>
+      </c>
+      <c r="D84" t="n">
+        <v>8970.243939280372</v>
+      </c>
+      <c r="E84" t="n">
+        <v>8970.243939280372</v>
+      </c>
+      <c r="F84" t="n">
+        <v>8970.243939280372</v>
+      </c>
+      <c r="G84" t="n">
+        <v>8970.243939280372</v>
+      </c>
+      <c r="H84" t="n">
+        <v>8970.243939280372</v>
+      </c>
+      <c r="I84" t="n">
+        <v>8970.243939280372</v>
+      </c>
+      <c r="J84" t="n">
+        <v>8970.243939280372</v>
+      </c>
+      <c r="K84" t="n">
+        <v>8970.243939280372</v>
+      </c>
+      <c r="L84" t="n">
+        <v>8970.243939280372</v>
+      </c>
+      <c r="M84" t="n">
+        <v>8970.243939280372</v>
+      </c>
+      <c r="N84" t="n">
+        <v>8970.243939280372</v>
+      </c>
+      <c r="O84" t="n">
+        <v>8970.243939280372</v>
+      </c>
+      <c r="P84" t="n">
+        <v>8970.243939280372</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>8970.243939280372</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +4919,52 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1396.388241922268</v>
+        <v>9017.195594222956</v>
+      </c>
+      <c r="C85" t="n">
+        <v>9017.195594222956</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9017.195594222956</v>
+      </c>
+      <c r="E85" t="n">
+        <v>9017.195594222956</v>
+      </c>
+      <c r="F85" t="n">
+        <v>9017.195594222956</v>
+      </c>
+      <c r="G85" t="n">
+        <v>9017.195594222956</v>
+      </c>
+      <c r="H85" t="n">
+        <v>9017.195594222956</v>
+      </c>
+      <c r="I85" t="n">
+        <v>9017.195594222956</v>
+      </c>
+      <c r="J85" t="n">
+        <v>9017.195594222956</v>
+      </c>
+      <c r="K85" t="n">
+        <v>9017.195594222956</v>
+      </c>
+      <c r="L85" t="n">
+        <v>9017.195594222956</v>
+      </c>
+      <c r="M85" t="n">
+        <v>9017.195594222956</v>
+      </c>
+      <c r="N85" t="n">
+        <v>9017.195594222956</v>
+      </c>
+      <c r="O85" t="n">
+        <v>9017.195594222956</v>
+      </c>
+      <c r="P85" t="n">
+        <v>9017.195594222956</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>9017.195594222956</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +4972,52 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>989.6866933960725</v>
+        <v>5744.733605796886</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5744.733605796886</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5744.733605796886</v>
+      </c>
+      <c r="E86" t="n">
+        <v>5744.733605796886</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5744.733605796886</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5744.733605796886</v>
+      </c>
+      <c r="H86" t="n">
+        <v>5744.733605796886</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5744.733605796886</v>
+      </c>
+      <c r="J86" t="n">
+        <v>5744.733605796886</v>
+      </c>
+      <c r="K86" t="n">
+        <v>5744.733605796886</v>
+      </c>
+      <c r="L86" t="n">
+        <v>5744.733605796886</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5744.733605796886</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5744.733605796886</v>
+      </c>
+      <c r="O86" t="n">
+        <v>5744.733605796886</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5744.733605796886</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5744.733605796886</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +5025,52 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>998.9338634251093</v>
+        <v>5774.52281062631</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5774.52281062631</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5774.52281062631</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5774.52281062631</v>
+      </c>
+      <c r="F87" t="n">
+        <v>5774.52281062631</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5774.52281062631</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5774.52281062631</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5774.52281062631</v>
+      </c>
+      <c r="J87" t="n">
+        <v>5774.52281062631</v>
+      </c>
+      <c r="K87" t="n">
+        <v>5774.52281062631</v>
+      </c>
+      <c r="L87" t="n">
+        <v>5774.52281062631</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5774.52281062631</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5774.52281062631</v>
+      </c>
+      <c r="O87" t="n">
+        <v>5774.52281062631</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5774.52281062631</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5774.52281062631</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +5078,52 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1008.270727135683</v>
+        <v>5804.475547109018</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5804.475547109018</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5804.475547109018</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5804.475547109018</v>
+      </c>
+      <c r="F88" t="n">
+        <v>5804.475547109018</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5804.475547109018</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5804.475547109018</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5804.475547109018</v>
+      </c>
+      <c r="J88" t="n">
+        <v>5804.475547109018</v>
+      </c>
+      <c r="K88" t="n">
+        <v>5804.475547109018</v>
+      </c>
+      <c r="L88" t="n">
+        <v>5804.475547109018</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5804.475547109018</v>
+      </c>
+      <c r="N88" t="n">
+        <v>5804.475547109018</v>
+      </c>
+      <c r="O88" t="n">
+        <v>5804.475547109018</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5804.475547109018</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5804.475547109018</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +5131,52 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1017.526209063595</v>
+        <v>5834.076922245159</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5834.076922245159</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5834.076922245159</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5834.076922245159</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5834.076922245159</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5834.076922245159</v>
+      </c>
+      <c r="H89" t="n">
+        <v>5834.076922245159</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5834.076922245159</v>
+      </c>
+      <c r="J89" t="n">
+        <v>5834.076922245159</v>
+      </c>
+      <c r="K89" t="n">
+        <v>5834.076922245159</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5834.076922245159</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5834.076922245159</v>
+      </c>
+      <c r="N89" t="n">
+        <v>5834.076922245159</v>
+      </c>
+      <c r="O89" t="n">
+        <v>5834.076922245159</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5834.076922245159</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5834.076922245159</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +5184,52 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>683.8024579908886</v>
+        <v>3727.848080725396</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3727.848080725396</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3727.848080725396</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3727.848080725396</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3727.848080725396</v>
+      </c>
+      <c r="G90" t="n">
+        <v>3727.848080725396</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3727.848080725396</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3727.848080725396</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3727.848080725396</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3727.848080725396</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3727.848080725396</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3727.848080725396</v>
+      </c>
+      <c r="N90" t="n">
+        <v>3727.848080725396</v>
+      </c>
+      <c r="O90" t="n">
+        <v>3727.848080725396</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3727.848080725396</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3727.848080725396</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +5237,52 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>690.0161490344567</v>
+        <v>3746.349135665335</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3746.349135665335</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3746.349135665335</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3746.349135665335</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3746.349135665335</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3746.349135665335</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3746.349135665335</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3746.349135665335</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3746.349135665335</v>
+      </c>
+      <c r="K91" t="n">
+        <v>3746.349135665335</v>
+      </c>
+      <c r="L91" t="n">
+        <v>3746.349135665335</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3746.349135665335</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3746.349135665335</v>
+      </c>
+      <c r="O91" t="n">
+        <v>3746.349135665335</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3746.349135665335</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3746.349135665335</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +5290,52 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>696.2884790903089</v>
+        <v>3764.942010074974</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3764.942010074974</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3764.942010074974</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3764.942010074974</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3764.942010074974</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3764.942010074974</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3764.942010074974</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3764.942010074974</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3764.942010074974</v>
+      </c>
+      <c r="K92" t="n">
+        <v>3764.942010074974</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3764.942010074974</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3764.942010074974</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3764.942010074974</v>
+      </c>
+      <c r="O92" t="n">
+        <v>3764.942010074974</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3764.942010074974</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3764.942010074974</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +5343,52 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>702.6200133525365</v>
+        <v>3783.627159648056</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3783.627159648056</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3783.627159648056</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3783.627159648056</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3783.627159648056</v>
+      </c>
+      <c r="G93" t="n">
+        <v>3783.627159648056</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3783.627159648056</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3783.627159648056</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3783.627159648056</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3783.627159648056</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3783.627159648056</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3783.627159648056</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3783.627159648056</v>
+      </c>
+      <c r="O93" t="n">
+        <v>3783.627159648056</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3783.627159648056</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3783.627159648056</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +5396,52 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>467.7878352501439</v>
+        <v>2204.54451396739</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2204.54451396739</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2204.54451396739</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2204.54451396739</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2204.54451396739</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2204.54451396739</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2204.54451396739</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2204.54451396739</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2204.54451396739</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2204.54451396739</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2204.54451396739</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2204.54451396739</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2204.54451396739</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2204.54451396739</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2204.54451396739</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2204.54451396739</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +5449,52 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>472.1192993520921</v>
+        <v>2215.485517540292</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2215.485517540292</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2215.485517540292</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2215.485517540292</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2215.485517540292</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2215.485517540292</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2215.485517540292</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2215.485517540292</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2215.485517540292</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2215.485517540292</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2215.485517540292</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2215.485517540292</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2215.485517540292</v>
+      </c>
+      <c r="O95" t="n">
+        <v>2215.485517540292</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2215.485517540292</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2215.485517540292</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +5502,52 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>476.4920675928059</v>
+        <v>2226.480820565269</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2226.480820565269</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2226.480820565269</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2226.480820565269</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2226.480820565269</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2226.480820565269</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2226.480820565269</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2226.480820565269</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2226.480820565269</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2226.480820565269</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2226.480820565269</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2226.480820565269</v>
+      </c>
+      <c r="N96" t="n">
+        <v>2226.480820565269</v>
+      </c>
+      <c r="O96" t="n">
+        <v>2226.480820565269</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2226.480820565269</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2226.480820565269</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +5555,52 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>480.9065401893898</v>
+        <v>2237.530692526785</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2237.530692526785</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2237.530692526785</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2237.530692526785</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2237.530692526785</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2237.530692526785</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2237.530692526785</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2237.530692526785</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2237.530692526785</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2237.530692526785</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2237.530692526785</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2237.530692526785</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2237.530692526785</v>
+      </c>
+      <c r="O97" t="n">
+        <v>2237.530692526785</v>
+      </c>
+      <c r="P97" t="n">
+        <v>2237.530692526785</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>2237.530692526785</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +5608,52 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>312.7421691925828</v>
+        <v>1280.847706566948</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1280.847706566948</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1280.847706566948</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1280.847706566948</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1280.847706566948</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1280.847706566948</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1280.847706566948</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1280.847706566948</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1280.847706566948</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1280.847706566948</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1280.847706566948</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1280.847706566948</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1280.847706566948</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1280.847706566948</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1280.847706566948</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1280.847706566948</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +5661,52 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>315.6845856708255</v>
+        <v>1287.204466090335</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1287.204466090335</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1287.204466090335</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1287.204466090335</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1287.204466090335</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1287.204466090335</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1287.204466090335</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1287.204466090335</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1287.204466090335</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1287.204466090335</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1287.204466090335</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1287.204466090335</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1287.204466090335</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1287.204466090335</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1287.204466090335</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1287.204466090335</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +5714,52 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>318.6553050262598</v>
+        <v>1293.592773776263</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1293.592773776263</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1293.592773776263</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1293.592773776263</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1293.592773776263</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1293.592773776263</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1293.592773776263</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1293.592773776263</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1293.592773776263</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1293.592773776263</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1293.592773776263</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1293.592773776263</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1293.592773776263</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1293.592773776263</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1293.592773776263</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1293.592773776263</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +5767,52 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>321.6546027262316</v>
+        <v>1300.012786196106</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1300.012786196106</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1300.012786196106</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1300.012786196106</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1300.012786196106</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1300.012786196106</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1300.012786196106</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1300.012786196106</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1300.012786196106</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1300.012786196106</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1300.012786196106</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1300.012786196106</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1300.012786196106</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1300.012786196106</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1300.012786196106</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1300.012786196106</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +5820,52 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>199.237382342825</v>
+        <v>709.9815146888329</v>
+      </c>
+      <c r="C102" t="n">
+        <v>709.9815146888329</v>
+      </c>
+      <c r="D102" t="n">
+        <v>709.9815146888329</v>
+      </c>
+      <c r="E102" t="n">
+        <v>709.9815146888329</v>
+      </c>
+      <c r="F102" t="n">
+        <v>709.9815146888329</v>
+      </c>
+      <c r="G102" t="n">
+        <v>709.9815146888329</v>
+      </c>
+      <c r="H102" t="n">
+        <v>709.9815146888329</v>
+      </c>
+      <c r="I102" t="n">
+        <v>709.9815146888329</v>
+      </c>
+      <c r="J102" t="n">
+        <v>709.9815146888329</v>
+      </c>
+      <c r="K102" t="n">
+        <v>709.9815146888329</v>
+      </c>
+      <c r="L102" t="n">
+        <v>709.9815146888329</v>
+      </c>
+      <c r="M102" t="n">
+        <v>709.9815146888329</v>
+      </c>
+      <c r="N102" t="n">
+        <v>709.9815146888329</v>
+      </c>
+      <c r="O102" t="n">
+        <v>709.9815146888329</v>
+      </c>
+      <c r="P102" t="n">
+        <v>709.9815146888329</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>709.9815146888329</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +5873,52 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>201.1348456741959</v>
+        <v>713.5051043644731</v>
+      </c>
+      <c r="C103" t="n">
+        <v>713.5051043644731</v>
+      </c>
+      <c r="D103" t="n">
+        <v>713.5051043644731</v>
+      </c>
+      <c r="E103" t="n">
+        <v>713.5051043644731</v>
+      </c>
+      <c r="F103" t="n">
+        <v>713.5051043644731</v>
+      </c>
+      <c r="G103" t="n">
+        <v>713.5051043644731</v>
+      </c>
+      <c r="H103" t="n">
+        <v>713.5051043644731</v>
+      </c>
+      <c r="I103" t="n">
+        <v>713.5051043644731</v>
+      </c>
+      <c r="J103" t="n">
+        <v>713.5051043644731</v>
+      </c>
+      <c r="K103" t="n">
+        <v>713.5051043644731</v>
+      </c>
+      <c r="L103" t="n">
+        <v>713.5051043644731</v>
+      </c>
+      <c r="M103" t="n">
+        <v>713.5051043644731</v>
+      </c>
+      <c r="N103" t="n">
+        <v>713.5051043644731</v>
+      </c>
+      <c r="O103" t="n">
+        <v>713.5051043644731</v>
+      </c>
+      <c r="P103" t="n">
+        <v>713.5051043644731</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>713.5051043644731</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +5926,52 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>203.0506795184329</v>
+        <v>717.0461813745658</v>
+      </c>
+      <c r="C104" t="n">
+        <v>717.0461813745658</v>
+      </c>
+      <c r="D104" t="n">
+        <v>717.0461813745658</v>
+      </c>
+      <c r="E104" t="n">
+        <v>717.0461813745658</v>
+      </c>
+      <c r="F104" t="n">
+        <v>717.0461813745658</v>
+      </c>
+      <c r="G104" t="n">
+        <v>717.0461813745658</v>
+      </c>
+      <c r="H104" t="n">
+        <v>717.0461813745658</v>
+      </c>
+      <c r="I104" t="n">
+        <v>717.0461813745658</v>
+      </c>
+      <c r="J104" t="n">
+        <v>717.0461813745658</v>
+      </c>
+      <c r="K104" t="n">
+        <v>717.0461813745658</v>
+      </c>
+      <c r="L104" t="n">
+        <v>717.0461813745658</v>
+      </c>
+      <c r="M104" t="n">
+        <v>717.0461813745658</v>
+      </c>
+      <c r="N104" t="n">
+        <v>717.0461813745658</v>
+      </c>
+      <c r="O104" t="n">
+        <v>717.0461813745658</v>
+      </c>
+      <c r="P104" t="n">
+        <v>717.0461813745658</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>717.0461813745658</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +5979,52 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>204.9850542323833</v>
+        <v>720.6048325075548</v>
+      </c>
+      <c r="C105" t="n">
+        <v>720.6048325075548</v>
+      </c>
+      <c r="D105" t="n">
+        <v>720.6048325075548</v>
+      </c>
+      <c r="E105" t="n">
+        <v>720.6048325075548</v>
+      </c>
+      <c r="F105" t="n">
+        <v>720.6048325075548</v>
+      </c>
+      <c r="G105" t="n">
+        <v>720.6048325075548</v>
+      </c>
+      <c r="H105" t="n">
+        <v>720.6048325075548</v>
+      </c>
+      <c r="I105" t="n">
+        <v>720.6048325075548</v>
+      </c>
+      <c r="J105" t="n">
+        <v>720.6048325075548</v>
+      </c>
+      <c r="K105" t="n">
+        <v>720.6048325075548</v>
+      </c>
+      <c r="L105" t="n">
+        <v>720.6048325075548</v>
+      </c>
+      <c r="M105" t="n">
+        <v>720.6048325075548</v>
+      </c>
+      <c r="N105" t="n">
+        <v>720.6048325075548</v>
+      </c>
+      <c r="O105" t="n">
+        <v>720.6048325075548</v>
+      </c>
+      <c r="P105" t="n">
+        <v>720.6048325075548</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>720.6048325075548</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +6032,52 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>120.4268755858024</v>
+        <v>374.3061236018685</v>
+      </c>
+      <c r="C106" t="n">
+        <v>374.3061236018685</v>
+      </c>
+      <c r="D106" t="n">
+        <v>374.3061236018685</v>
+      </c>
+      <c r="E106" t="n">
+        <v>374.3061236018685</v>
+      </c>
+      <c r="F106" t="n">
+        <v>374.3061236018685</v>
+      </c>
+      <c r="G106" t="n">
+        <v>374.3061236018685</v>
+      </c>
+      <c r="H106" t="n">
+        <v>374.3061236018685</v>
+      </c>
+      <c r="I106" t="n">
+        <v>374.3061236018685</v>
+      </c>
+      <c r="J106" t="n">
+        <v>374.3061236018685</v>
+      </c>
+      <c r="K106" t="n">
+        <v>374.3061236018685</v>
+      </c>
+      <c r="L106" t="n">
+        <v>374.3061236018685</v>
+      </c>
+      <c r="M106" t="n">
+        <v>374.3061236018685</v>
+      </c>
+      <c r="N106" t="n">
+        <v>374.3061236018685</v>
+      </c>
+      <c r="O106" t="n">
+        <v>374.3061236018685</v>
+      </c>
+      <c r="P106" t="n">
+        <v>374.3061236018685</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>374.3061236018685</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +6085,52 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>121.5843579000127</v>
+        <v>376.1637792807358</v>
+      </c>
+      <c r="C107" t="n">
+        <v>376.1637792807358</v>
+      </c>
+      <c r="D107" t="n">
+        <v>376.1637792807358</v>
+      </c>
+      <c r="E107" t="n">
+        <v>376.1637792807358</v>
+      </c>
+      <c r="F107" t="n">
+        <v>376.1637792807358</v>
+      </c>
+      <c r="G107" t="n">
+        <v>376.1637792807358</v>
+      </c>
+      <c r="H107" t="n">
+        <v>376.1637792807358</v>
+      </c>
+      <c r="I107" t="n">
+        <v>376.1637792807358</v>
+      </c>
+      <c r="J107" t="n">
+        <v>376.1637792807358</v>
+      </c>
+      <c r="K107" t="n">
+        <v>376.1637792807358</v>
+      </c>
+      <c r="L107" t="n">
+        <v>376.1637792807358</v>
+      </c>
+      <c r="M107" t="n">
+        <v>376.1637792807358</v>
+      </c>
+      <c r="N107" t="n">
+        <v>376.1637792807358</v>
+      </c>
+      <c r="O107" t="n">
+        <v>376.1637792807358</v>
+      </c>
+      <c r="P107" t="n">
+        <v>376.1637792807358</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>376.1637792807358</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +6138,52 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>122.7531007746879</v>
+        <v>378.0306543776238</v>
+      </c>
+      <c r="C108" t="n">
+        <v>378.0306543776238</v>
+      </c>
+      <c r="D108" t="n">
+        <v>378.0306543776238</v>
+      </c>
+      <c r="E108" t="n">
+        <v>378.0306543776238</v>
+      </c>
+      <c r="F108" t="n">
+        <v>378.0306543776238</v>
+      </c>
+      <c r="G108" t="n">
+        <v>378.0306543776238</v>
+      </c>
+      <c r="H108" t="n">
+        <v>378.0306543776238</v>
+      </c>
+      <c r="I108" t="n">
+        <v>378.0306543776238</v>
+      </c>
+      <c r="J108" t="n">
+        <v>378.0306543776238</v>
+      </c>
+      <c r="K108" t="n">
+        <v>378.0306543776238</v>
+      </c>
+      <c r="L108" t="n">
+        <v>378.0306543776238</v>
+      </c>
+      <c r="M108" t="n">
+        <v>378.0306543776238</v>
+      </c>
+      <c r="N108" t="n">
+        <v>378.0306543776238</v>
+      </c>
+      <c r="O108" t="n">
+        <v>378.0306543776238</v>
+      </c>
+      <c r="P108" t="n">
+        <v>378.0306543776238</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>378.0306543776238</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +6191,52 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>123.9332144471509</v>
+        <v>379.9067946478734</v>
+      </c>
+      <c r="C109" t="n">
+        <v>379.9067946478734</v>
+      </c>
+      <c r="D109" t="n">
+        <v>379.9067946478734</v>
+      </c>
+      <c r="E109" t="n">
+        <v>379.9067946478734</v>
+      </c>
+      <c r="F109" t="n">
+        <v>379.9067946478734</v>
+      </c>
+      <c r="G109" t="n">
+        <v>379.9067946478734</v>
+      </c>
+      <c r="H109" t="n">
+        <v>379.9067946478734</v>
+      </c>
+      <c r="I109" t="n">
+        <v>379.9067946478734</v>
+      </c>
+      <c r="J109" t="n">
+        <v>379.9067946478734</v>
+      </c>
+      <c r="K109" t="n">
+        <v>379.9067946478734</v>
+      </c>
+      <c r="L109" t="n">
+        <v>379.9067946478734</v>
+      </c>
+      <c r="M109" t="n">
+        <v>379.9067946478734</v>
+      </c>
+      <c r="N109" t="n">
+        <v>379.9067946478734</v>
+      </c>
+      <c r="O109" t="n">
+        <v>379.9067946478734</v>
+      </c>
+      <c r="P109" t="n">
+        <v>379.9067946478734</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>379.9067946478734</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +6244,52 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>68.82002725679283</v>
+        <v>187.0699290245836</v>
+      </c>
+      <c r="C110" t="n">
+        <v>187.0699290245836</v>
+      </c>
+      <c r="D110" t="n">
+        <v>187.0699290245836</v>
+      </c>
+      <c r="E110" t="n">
+        <v>187.0699290245836</v>
+      </c>
+      <c r="F110" t="n">
+        <v>187.0699290245836</v>
+      </c>
+      <c r="G110" t="n">
+        <v>187.0699290245836</v>
+      </c>
+      <c r="H110" t="n">
+        <v>187.0699290245836</v>
+      </c>
+      <c r="I110" t="n">
+        <v>187.0699290245836</v>
+      </c>
+      <c r="J110" t="n">
+        <v>187.0699290245836</v>
+      </c>
+      <c r="K110" t="n">
+        <v>187.0699290245836</v>
+      </c>
+      <c r="L110" t="n">
+        <v>187.0699290245836</v>
+      </c>
+      <c r="M110" t="n">
+        <v>187.0699290245836</v>
+      </c>
+      <c r="N110" t="n">
+        <v>187.0699290245836</v>
+      </c>
+      <c r="O110" t="n">
+        <v>187.0699290245836</v>
+      </c>
+      <c r="P110" t="n">
+        <v>187.0699290245836</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>187.0699290245836</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +6297,52 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>69.48606329755208</v>
+        <v>187.9983442817367</v>
+      </c>
+      <c r="C111" t="n">
+        <v>187.9983442817367</v>
+      </c>
+      <c r="D111" t="n">
+        <v>187.9983442817367</v>
+      </c>
+      <c r="E111" t="n">
+        <v>187.9983442817367</v>
+      </c>
+      <c r="F111" t="n">
+        <v>187.9983442817367</v>
+      </c>
+      <c r="G111" t="n">
+        <v>187.9983442817367</v>
+      </c>
+      <c r="H111" t="n">
+        <v>187.9983442817367</v>
+      </c>
+      <c r="I111" t="n">
+        <v>187.9983442817367</v>
+      </c>
+      <c r="J111" t="n">
+        <v>187.9983442817367</v>
+      </c>
+      <c r="K111" t="n">
+        <v>187.9983442817367</v>
+      </c>
+      <c r="L111" t="n">
+        <v>187.9983442817367</v>
+      </c>
+      <c r="M111" t="n">
+        <v>187.9983442817367</v>
+      </c>
+      <c r="N111" t="n">
+        <v>187.9983442817367</v>
+      </c>
+      <c r="O111" t="n">
+        <v>187.9983442817367</v>
+      </c>
+      <c r="P111" t="n">
+        <v>187.9983442817367</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>187.9983442817367</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +6350,52 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>70.15860213149058</v>
+        <v>188.9313672002826</v>
+      </c>
+      <c r="C112" t="n">
+        <v>188.9313672002826</v>
+      </c>
+      <c r="D112" t="n">
+        <v>188.9313672002826</v>
+      </c>
+      <c r="E112" t="n">
+        <v>188.9313672002826</v>
+      </c>
+      <c r="F112" t="n">
+        <v>188.9313672002826</v>
+      </c>
+      <c r="G112" t="n">
+        <v>188.9313672002826</v>
+      </c>
+      <c r="H112" t="n">
+        <v>188.9313672002826</v>
+      </c>
+      <c r="I112" t="n">
+        <v>188.9313672002826</v>
+      </c>
+      <c r="J112" t="n">
+        <v>188.9313672002826</v>
+      </c>
+      <c r="K112" t="n">
+        <v>188.9313672002826</v>
+      </c>
+      <c r="L112" t="n">
+        <v>188.9313672002826</v>
+      </c>
+      <c r="M112" t="n">
+        <v>188.9313672002826</v>
+      </c>
+      <c r="N112" t="n">
+        <v>188.9313672002826</v>
+      </c>
+      <c r="O112" t="n">
+        <v>188.9313672002826</v>
+      </c>
+      <c r="P112" t="n">
+        <v>188.9313672002826</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>188.9313672002826</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +6403,52 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>70.83770753584126</v>
+        <v>189.8690206477294</v>
+      </c>
+      <c r="C113" t="n">
+        <v>189.8690206477294</v>
+      </c>
+      <c r="D113" t="n">
+        <v>189.8690206477294</v>
+      </c>
+      <c r="E113" t="n">
+        <v>189.8690206477294</v>
+      </c>
+      <c r="F113" t="n">
+        <v>189.8690206477294</v>
+      </c>
+      <c r="G113" t="n">
+        <v>189.8690206477294</v>
+      </c>
+      <c r="H113" t="n">
+        <v>189.8690206477294</v>
+      </c>
+      <c r="I113" t="n">
+        <v>189.8690206477294</v>
+      </c>
+      <c r="J113" t="n">
+        <v>189.8690206477294</v>
+      </c>
+      <c r="K113" t="n">
+        <v>189.8690206477294</v>
+      </c>
+      <c r="L113" t="n">
+        <v>189.8690206477294</v>
+      </c>
+      <c r="M113" t="n">
+        <v>189.8690206477294</v>
+      </c>
+      <c r="N113" t="n">
+        <v>189.8690206477294</v>
+      </c>
+      <c r="O113" t="n">
+        <v>189.8690206477294</v>
+      </c>
+      <c r="P113" t="n">
+        <v>189.8690206477294</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>189.8690206477294</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +6456,52 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>37.01456188500467</v>
+        <v>88.35276028303954</v>
+      </c>
+      <c r="C114" t="n">
+        <v>88.35276028303954</v>
+      </c>
+      <c r="D114" t="n">
+        <v>88.35276028303954</v>
+      </c>
+      <c r="E114" t="n">
+        <v>88.35276028303954</v>
+      </c>
+      <c r="F114" t="n">
+        <v>88.35276028303954</v>
+      </c>
+      <c r="G114" t="n">
+        <v>88.35276028303954</v>
+      </c>
+      <c r="H114" t="n">
+        <v>88.35276028303954</v>
+      </c>
+      <c r="I114" t="n">
+        <v>88.35276028303954</v>
+      </c>
+      <c r="J114" t="n">
+        <v>88.35276028303954</v>
+      </c>
+      <c r="K114" t="n">
+        <v>88.35276028303954</v>
+      </c>
+      <c r="L114" t="n">
+        <v>88.35276028303954</v>
+      </c>
+      <c r="M114" t="n">
+        <v>88.35276028303954</v>
+      </c>
+      <c r="N114" t="n">
+        <v>88.35276028303954</v>
+      </c>
+      <c r="O114" t="n">
+        <v>88.35276028303954</v>
+      </c>
+      <c r="P114" t="n">
+        <v>88.35276028303954</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>88.35276028303954</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +6509,52 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>37.37462182762514</v>
+        <v>88.79124898662795</v>
+      </c>
+      <c r="C115" t="n">
+        <v>88.79124898662795</v>
+      </c>
+      <c r="D115" t="n">
+        <v>88.79124898662795</v>
+      </c>
+      <c r="E115" t="n">
+        <v>88.79124898662795</v>
+      </c>
+      <c r="F115" t="n">
+        <v>88.79124898662795</v>
+      </c>
+      <c r="G115" t="n">
+        <v>88.79124898662795</v>
+      </c>
+      <c r="H115" t="n">
+        <v>88.79124898662795</v>
+      </c>
+      <c r="I115" t="n">
+        <v>88.79124898662795</v>
+      </c>
+      <c r="J115" t="n">
+        <v>88.79124898662795</v>
+      </c>
+      <c r="K115" t="n">
+        <v>88.79124898662795</v>
+      </c>
+      <c r="L115" t="n">
+        <v>88.79124898662795</v>
+      </c>
+      <c r="M115" t="n">
+        <v>88.79124898662795</v>
+      </c>
+      <c r="N115" t="n">
+        <v>88.79124898662795</v>
+      </c>
+      <c r="O115" t="n">
+        <v>88.79124898662795</v>
+      </c>
+      <c r="P115" t="n">
+        <v>88.79124898662795</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>88.79124898662795</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +6562,52 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>37.73820646204638</v>
+        <v>89.23191387964788</v>
+      </c>
+      <c r="C116" t="n">
+        <v>89.23191387964788</v>
+      </c>
+      <c r="D116" t="n">
+        <v>89.23191387964788</v>
+      </c>
+      <c r="E116" t="n">
+        <v>89.23191387964788</v>
+      </c>
+      <c r="F116" t="n">
+        <v>89.23191387964788</v>
+      </c>
+      <c r="G116" t="n">
+        <v>89.23191387964788</v>
+      </c>
+      <c r="H116" t="n">
+        <v>89.23191387964788</v>
+      </c>
+      <c r="I116" t="n">
+        <v>89.23191387964788</v>
+      </c>
+      <c r="J116" t="n">
+        <v>89.23191387964788</v>
+      </c>
+      <c r="K116" t="n">
+        <v>89.23191387964788</v>
+      </c>
+      <c r="L116" t="n">
+        <v>89.23191387964788</v>
+      </c>
+      <c r="M116" t="n">
+        <v>89.23191387964788</v>
+      </c>
+      <c r="N116" t="n">
+        <v>89.23191387964788</v>
+      </c>
+      <c r="O116" t="n">
+        <v>89.23191387964788</v>
+      </c>
+      <c r="P116" t="n">
+        <v>89.23191387964788</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>89.23191387964788</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +6615,52 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>38.10535040372088</v>
+        <v>89.67476576237858</v>
+      </c>
+      <c r="C117" t="n">
+        <v>89.67476576237858</v>
+      </c>
+      <c r="D117" t="n">
+        <v>89.67476576237858</v>
+      </c>
+      <c r="E117" t="n">
+        <v>89.67476576237858</v>
+      </c>
+      <c r="F117" t="n">
+        <v>89.67476576237858</v>
+      </c>
+      <c r="G117" t="n">
+        <v>89.67476576237858</v>
+      </c>
+      <c r="H117" t="n">
+        <v>89.67476576237858</v>
+      </c>
+      <c r="I117" t="n">
+        <v>89.67476576237858</v>
+      </c>
+      <c r="J117" t="n">
+        <v>89.67476576237858</v>
+      </c>
+      <c r="K117" t="n">
+        <v>89.67476576237858</v>
+      </c>
+      <c r="L117" t="n">
+        <v>89.67476576237858</v>
+      </c>
+      <c r="M117" t="n">
+        <v>89.67476576237858</v>
+      </c>
+      <c r="N117" t="n">
+        <v>89.67476576237858</v>
+      </c>
+      <c r="O117" t="n">
+        <v>89.67476576237858</v>
+      </c>
+      <c r="P117" t="n">
+        <v>89.67476576237858</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>89.67476576237858</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +6668,52 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>18.65353203486789</v>
+        <v>39.25545188739237</v>
+      </c>
+      <c r="C118" t="n">
+        <v>39.25545188739237</v>
+      </c>
+      <c r="D118" t="n">
+        <v>39.25545188739237</v>
+      </c>
+      <c r="E118" t="n">
+        <v>39.25545188739237</v>
+      </c>
+      <c r="F118" t="n">
+        <v>39.25545188739237</v>
+      </c>
+      <c r="G118" t="n">
+        <v>39.25545188739237</v>
+      </c>
+      <c r="H118" t="n">
+        <v>39.25545188739237</v>
+      </c>
+      <c r="I118" t="n">
+        <v>39.25545188739237</v>
+      </c>
+      <c r="J118" t="n">
+        <v>39.25545188739237</v>
+      </c>
+      <c r="K118" t="n">
+        <v>39.25545188739237</v>
+      </c>
+      <c r="L118" t="n">
+        <v>39.25545188739237</v>
+      </c>
+      <c r="M118" t="n">
+        <v>39.25545188739237</v>
+      </c>
+      <c r="N118" t="n">
+        <v>39.25545188739237</v>
+      </c>
+      <c r="O118" t="n">
+        <v>39.25545188739237</v>
+      </c>
+      <c r="P118" t="n">
+        <v>39.25545188739237</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>39.25545188739237</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +6721,52 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>18.83566972453299</v>
+        <v>39.45027400898469</v>
+      </c>
+      <c r="C119" t="n">
+        <v>39.45027400898469</v>
+      </c>
+      <c r="D119" t="n">
+        <v>39.45027400898469</v>
+      </c>
+      <c r="E119" t="n">
+        <v>39.45027400898469</v>
+      </c>
+      <c r="F119" t="n">
+        <v>39.45027400898469</v>
+      </c>
+      <c r="G119" t="n">
+        <v>39.45027400898469</v>
+      </c>
+      <c r="H119" t="n">
+        <v>39.45027400898469</v>
+      </c>
+      <c r="I119" t="n">
+        <v>39.45027400898469</v>
+      </c>
+      <c r="J119" t="n">
+        <v>39.45027400898469</v>
+      </c>
+      <c r="K119" t="n">
+        <v>39.45027400898469</v>
+      </c>
+      <c r="L119" t="n">
+        <v>39.45027400898469</v>
+      </c>
+      <c r="M119" t="n">
+        <v>39.45027400898469</v>
+      </c>
+      <c r="N119" t="n">
+        <v>39.45027400898469</v>
+      </c>
+      <c r="O119" t="n">
+        <v>39.45027400898469</v>
+      </c>
+      <c r="P119" t="n">
+        <v>39.45027400898469</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>39.45027400898469</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +6774,52 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>19.01959383682717</v>
+        <v>39.64606301943542</v>
+      </c>
+      <c r="C120" t="n">
+        <v>39.64606301943542</v>
+      </c>
+      <c r="D120" t="n">
+        <v>39.64606301943542</v>
+      </c>
+      <c r="E120" t="n">
+        <v>39.64606301943542</v>
+      </c>
+      <c r="F120" t="n">
+        <v>39.64606301943542</v>
+      </c>
+      <c r="G120" t="n">
+        <v>39.64606301943542</v>
+      </c>
+      <c r="H120" t="n">
+        <v>39.64606301943542</v>
+      </c>
+      <c r="I120" t="n">
+        <v>39.64606301943542</v>
+      </c>
+      <c r="J120" t="n">
+        <v>39.64606301943542</v>
+      </c>
+      <c r="K120" t="n">
+        <v>39.64606301943542</v>
+      </c>
+      <c r="L120" t="n">
+        <v>39.64606301943542</v>
+      </c>
+      <c r="M120" t="n">
+        <v>39.64606301943542</v>
+      </c>
+      <c r="N120" t="n">
+        <v>39.64606301943542</v>
+      </c>
+      <c r="O120" t="n">
+        <v>39.64606301943542</v>
+      </c>
+      <c r="P120" t="n">
+        <v>39.64606301943542</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>39.64606301943542</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +6827,52 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>19.20532193313446</v>
+        <v>39.84282371734781</v>
+      </c>
+      <c r="C121" t="n">
+        <v>39.84282371734781</v>
+      </c>
+      <c r="D121" t="n">
+        <v>39.84282371734781</v>
+      </c>
+      <c r="E121" t="n">
+        <v>39.84282371734781</v>
+      </c>
+      <c r="F121" t="n">
+        <v>39.84282371734781</v>
+      </c>
+      <c r="G121" t="n">
+        <v>39.84282371734781</v>
+      </c>
+      <c r="H121" t="n">
+        <v>39.84282371734781</v>
+      </c>
+      <c r="I121" t="n">
+        <v>39.84282371734781</v>
+      </c>
+      <c r="J121" t="n">
+        <v>39.84282371734781</v>
+      </c>
+      <c r="K121" t="n">
+        <v>39.84282371734781</v>
+      </c>
+      <c r="L121" t="n">
+        <v>39.84282371734781</v>
+      </c>
+      <c r="M121" t="n">
+        <v>39.84282371734781</v>
+      </c>
+      <c r="N121" t="n">
+        <v>39.84282371734781</v>
+      </c>
+      <c r="O121" t="n">
+        <v>39.84282371734781</v>
+      </c>
+      <c r="P121" t="n">
+        <v>39.84282371734781</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>39.84282371734781</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +6880,52 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>8.764324567617638</v>
+        <v>16.3271033224635</v>
+      </c>
+      <c r="C122" t="n">
+        <v>16.3271033224635</v>
+      </c>
+      <c r="D122" t="n">
+        <v>16.3271033224635</v>
+      </c>
+      <c r="E122" t="n">
+        <v>16.3271033224635</v>
+      </c>
+      <c r="F122" t="n">
+        <v>16.3271033224635</v>
+      </c>
+      <c r="G122" t="n">
+        <v>16.3271033224635</v>
+      </c>
+      <c r="H122" t="n">
+        <v>16.3271033224635</v>
+      </c>
+      <c r="I122" t="n">
+        <v>16.3271033224635</v>
+      </c>
+      <c r="J122" t="n">
+        <v>16.3271033224635</v>
+      </c>
+      <c r="K122" t="n">
+        <v>16.3271033224635</v>
+      </c>
+      <c r="L122" t="n">
+        <v>16.3271033224635</v>
+      </c>
+      <c r="M122" t="n">
+        <v>16.3271033224635</v>
+      </c>
+      <c r="N122" t="n">
+        <v>16.3271033224635</v>
+      </c>
+      <c r="O122" t="n">
+        <v>16.3271033224635</v>
+      </c>
+      <c r="P122" t="n">
+        <v>16.3271033224635</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>16.3271033224635</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +6933,52 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>8.850137839654176</v>
+        <v>16.40813361904151</v>
+      </c>
+      <c r="C123" t="n">
+        <v>16.40813361904151</v>
+      </c>
+      <c r="D123" t="n">
+        <v>16.40813361904151</v>
+      </c>
+      <c r="E123" t="n">
+        <v>16.40813361904151</v>
+      </c>
+      <c r="F123" t="n">
+        <v>16.40813361904151</v>
+      </c>
+      <c r="G123" t="n">
+        <v>16.40813361904151</v>
+      </c>
+      <c r="H123" t="n">
+        <v>16.40813361904151</v>
+      </c>
+      <c r="I123" t="n">
+        <v>16.40813361904151</v>
+      </c>
+      <c r="J123" t="n">
+        <v>16.40813361904151</v>
+      </c>
+      <c r="K123" t="n">
+        <v>16.40813361904151</v>
+      </c>
+      <c r="L123" t="n">
+        <v>16.40813361904151</v>
+      </c>
+      <c r="M123" t="n">
+        <v>16.40813361904151</v>
+      </c>
+      <c r="N123" t="n">
+        <v>16.40813361904151</v>
+      </c>
+      <c r="O123" t="n">
+        <v>16.40813361904151</v>
+      </c>
+      <c r="P123" t="n">
+        <v>16.40813361904151</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>16.40813361904151</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +6986,52 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>8.93679395905111</v>
+        <v>16.4895660634368</v>
+      </c>
+      <c r="C124" t="n">
+        <v>16.4895660634368</v>
+      </c>
+      <c r="D124" t="n">
+        <v>16.4895660634368</v>
+      </c>
+      <c r="E124" t="n">
+        <v>16.4895660634368</v>
+      </c>
+      <c r="F124" t="n">
+        <v>16.4895660634368</v>
+      </c>
+      <c r="G124" t="n">
+        <v>16.4895660634368</v>
+      </c>
+      <c r="H124" t="n">
+        <v>16.4895660634368</v>
+      </c>
+      <c r="I124" t="n">
+        <v>16.4895660634368</v>
+      </c>
+      <c r="J124" t="n">
+        <v>16.4895660634368</v>
+      </c>
+      <c r="K124" t="n">
+        <v>16.4895660634368</v>
+      </c>
+      <c r="L124" t="n">
+        <v>16.4895660634368</v>
+      </c>
+      <c r="M124" t="n">
+        <v>16.4895660634368</v>
+      </c>
+      <c r="N124" t="n">
+        <v>16.4895660634368</v>
+      </c>
+      <c r="O124" t="n">
+        <v>16.4895660634368</v>
+      </c>
+      <c r="P124" t="n">
+        <v>16.4895660634368</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>16.4895660634368</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +7039,52 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.024301217297962</v>
+        <v>16.57140265148146</v>
+      </c>
+      <c r="C125" t="n">
+        <v>16.57140265148146</v>
+      </c>
+      <c r="D125" t="n">
+        <v>16.57140265148146</v>
+      </c>
+      <c r="E125" t="n">
+        <v>16.57140265148146</v>
+      </c>
+      <c r="F125" t="n">
+        <v>16.57140265148146</v>
+      </c>
+      <c r="G125" t="n">
+        <v>16.57140265148146</v>
+      </c>
+      <c r="H125" t="n">
+        <v>16.57140265148146</v>
+      </c>
+      <c r="I125" t="n">
+        <v>16.57140265148146</v>
+      </c>
+      <c r="J125" t="n">
+        <v>16.57140265148146</v>
+      </c>
+      <c r="K125" t="n">
+        <v>16.57140265148146</v>
+      </c>
+      <c r="L125" t="n">
+        <v>16.57140265148146</v>
+      </c>
+      <c r="M125" t="n">
+        <v>16.57140265148146</v>
+      </c>
+      <c r="N125" t="n">
+        <v>16.57140265148146</v>
+      </c>
+      <c r="O125" t="n">
+        <v>16.57140265148146</v>
+      </c>
+      <c r="P125" t="n">
+        <v>16.57140265148146</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>16.57140265148146</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +7092,52 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.820883729716511</v>
+        <v>6.325647204761642</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6.325647204761642</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6.325647204761642</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6.325647204761642</v>
+      </c>
+      <c r="F126" t="n">
+        <v>6.325647204761642</v>
+      </c>
+      <c r="G126" t="n">
+        <v>6.325647204761642</v>
+      </c>
+      <c r="H126" t="n">
+        <v>6.325647204761642</v>
+      </c>
+      <c r="I126" t="n">
+        <v>6.325647204761642</v>
+      </c>
+      <c r="J126" t="n">
+        <v>6.325647204761642</v>
+      </c>
+      <c r="K126" t="n">
+        <v>6.325647204761642</v>
+      </c>
+      <c r="L126" t="n">
+        <v>6.325647204761642</v>
+      </c>
+      <c r="M126" t="n">
+        <v>6.325647204761642</v>
+      </c>
+      <c r="N126" t="n">
+        <v>6.325647204761642</v>
+      </c>
+      <c r="O126" t="n">
+        <v>6.325647204761642</v>
+      </c>
+      <c r="P126" t="n">
+        <v>6.325647204761642</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>6.325647204761642</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +7145,52 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.858369604132675</v>
+        <v>6.357040958995103</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6.357040958995103</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6.357040958995103</v>
+      </c>
+      <c r="E127" t="n">
+        <v>6.357040958995103</v>
+      </c>
+      <c r="F127" t="n">
+        <v>6.357040958995103</v>
+      </c>
+      <c r="G127" t="n">
+        <v>6.357040958995103</v>
+      </c>
+      <c r="H127" t="n">
+        <v>6.357040958995103</v>
+      </c>
+      <c r="I127" t="n">
+        <v>6.357040958995103</v>
+      </c>
+      <c r="J127" t="n">
+        <v>6.357040958995103</v>
+      </c>
+      <c r="K127" t="n">
+        <v>6.357040958995103</v>
+      </c>
+      <c r="L127" t="n">
+        <v>6.357040958995103</v>
+      </c>
+      <c r="M127" t="n">
+        <v>6.357040958995103</v>
+      </c>
+      <c r="N127" t="n">
+        <v>6.357040958995103</v>
+      </c>
+      <c r="O127" t="n">
+        <v>6.357040958995103</v>
+      </c>
+      <c r="P127" t="n">
+        <v>6.357040958995103</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>6.357040958995103</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +7198,52 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.896224033914016</v>
+        <v>6.38859051828265</v>
+      </c>
+      <c r="C128" t="n">
+        <v>6.38859051828265</v>
+      </c>
+      <c r="D128" t="n">
+        <v>6.38859051828265</v>
+      </c>
+      <c r="E128" t="n">
+        <v>6.38859051828265</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6.38859051828265</v>
+      </c>
+      <c r="G128" t="n">
+        <v>6.38859051828265</v>
+      </c>
+      <c r="H128" t="n">
+        <v>6.38859051828265</v>
+      </c>
+      <c r="I128" t="n">
+        <v>6.38859051828265</v>
+      </c>
+      <c r="J128" t="n">
+        <v>6.38859051828265</v>
+      </c>
+      <c r="K128" t="n">
+        <v>6.38859051828265</v>
+      </c>
+      <c r="L128" t="n">
+        <v>6.38859051828265</v>
+      </c>
+      <c r="M128" t="n">
+        <v>6.38859051828265</v>
+      </c>
+      <c r="N128" t="n">
+        <v>6.38859051828265</v>
+      </c>
+      <c r="O128" t="n">
+        <v>6.38859051828265</v>
+      </c>
+      <c r="P128" t="n">
+        <v>6.38859051828265</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>6.38859051828265</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +7251,52 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.934450646575368</v>
+        <v>6.420296655874105</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6.420296655874105</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6.420296655874105</v>
+      </c>
+      <c r="E129" t="n">
+        <v>6.420296655874105</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6.420296655874105</v>
+      </c>
+      <c r="G129" t="n">
+        <v>6.420296655874105</v>
+      </c>
+      <c r="H129" t="n">
+        <v>6.420296655874105</v>
+      </c>
+      <c r="I129" t="n">
+        <v>6.420296655874105</v>
+      </c>
+      <c r="J129" t="n">
+        <v>6.420296655874105</v>
+      </c>
+      <c r="K129" t="n">
+        <v>6.420296655874105</v>
+      </c>
+      <c r="L129" t="n">
+        <v>6.420296655874105</v>
+      </c>
+      <c r="M129" t="n">
+        <v>6.420296655874105</v>
+      </c>
+      <c r="N129" t="n">
+        <v>6.420296655874105</v>
+      </c>
+      <c r="O129" t="n">
+        <v>6.420296655874105</v>
+      </c>
+      <c r="P129" t="n">
+        <v>6.420296655874105</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>6.420296655874105</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +7304,52 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.535614864218265</v>
+        <v>2.267601015780481</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.267601015780481</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.267601015780481</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.267601015780481</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2.267601015780481</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2.267601015780481</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2.267601015780481</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2.267601015780481</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.267601015780481</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2.267601015780481</v>
+      </c>
+      <c r="L130" t="n">
+        <v>2.267601015780481</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2.267601015780481</v>
+      </c>
+      <c r="N130" t="n">
+        <v>2.267601015780481</v>
+      </c>
+      <c r="O130" t="n">
+        <v>2.267601015780481</v>
+      </c>
+      <c r="P130" t="n">
+        <v>2.267601015780481</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>2.267601015780481</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +7357,52 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.550702050102643</v>
+        <v>2.278854964457127</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.278854964457127</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.278854964457127</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.278854964457127</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.278854964457127</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2.278854964457127</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2.278854964457127</v>
+      </c>
+      <c r="I131" t="n">
+        <v>2.278854964457127</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.278854964457127</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2.278854964457127</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2.278854964457127</v>
+      </c>
+      <c r="M131" t="n">
+        <v>2.278854964457127</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2.278854964457127</v>
+      </c>
+      <c r="O131" t="n">
+        <v>2.278854964457127</v>
+      </c>
+      <c r="P131" t="n">
+        <v>2.278854964457127</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>2.278854964457127</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +7410,52 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.565937678530355</v>
+        <v>2.290164765710984</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.290164765710984</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.290164765710984</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.290164765710984</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.290164765710984</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2.290164765710984</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2.290164765710984</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2.290164765710984</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.290164765710984</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2.290164765710984</v>
+      </c>
+      <c r="L132" t="n">
+        <v>2.290164765710984</v>
+      </c>
+      <c r="M132" t="n">
+        <v>2.290164765710984</v>
+      </c>
+      <c r="N132" t="n">
+        <v>2.290164765710984</v>
+      </c>
+      <c r="O132" t="n">
+        <v>2.290164765710984</v>
+      </c>
+      <c r="P132" t="n">
+        <v>2.290164765710984</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>2.290164765710984</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +7463,52 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.581323211086032</v>
+        <v>2.30153069673457</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.30153069673457</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.30153069673457</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.30153069673457</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2.30153069673457</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2.30153069673457</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2.30153069673457</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2.30153069673457</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.30153069673457</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2.30153069673457</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2.30153069673457</v>
+      </c>
+      <c r="M133" t="n">
+        <v>2.30153069673457</v>
+      </c>
+      <c r="N133" t="n">
+        <v>2.30153069673457</v>
+      </c>
+      <c r="O133" t="n">
+        <v>2.30153069673457</v>
+      </c>
+      <c r="P133" t="n">
+        <v>2.30153069673457</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>2.30153069673457</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +7516,52 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5649464921254514</v>
+        <v>0.7465107874338044</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.7465107874338044</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.7465107874338044</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.7465107874338044</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.7465107874338044</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.7465107874338044</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.7465107874338044</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.7465107874338044</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.7465107874338044</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.7465107874338044</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.7465107874338044</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.7465107874338044</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.7465107874338044</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0.7465107874338044</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0.7465107874338044</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0.7465107874338044</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +7569,52 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5705026296808362</v>
+        <v>0.7502156693904969</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.7502156693904969</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.7502156693904969</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.7502156693904969</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.7502156693904969</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.7502156693904969</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.7502156693904969</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.7502156693904969</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.7502156693904969</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.7502156693904969</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.7502156693904969</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.7502156693904969</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.7502156693904969</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0.7502156693904969</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0.7502156693904969</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0.7502156693904969</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +7622,52 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.576113461958432</v>
+        <v>0.7539389384228272</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.7539389384228272</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.7539389384228272</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.7539389384228272</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.7539389384228272</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.7539389384228272</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.7539389384228272</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.7539389384228272</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.7539389384228272</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.7539389384228272</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.7539389384228272</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.7539389384228272</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.7539389384228272</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0.7539389384228272</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0.7539389384228272</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0.7539389384228272</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +7675,52 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.581779527628707</v>
+        <v>0.7576806857845937</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.7576806857845937</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.7576806857845937</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.7576806857845937</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.7576806857845937</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.7576806857845937</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.7576806857845937</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.7576806857845937</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.7576806857845937</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.7576806857845937</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.7576806857845937</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.7576806857845937</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.7576806857845937</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0.7576806857845937</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0.7576806857845937</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0.7576806857845937</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +7728,52 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1886499639170322</v>
+        <v>0.2238704440069479</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.2238704440069479</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.2238704440069479</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.2238704440069479</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.2238704440069479</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.2238704440069479</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.2238704440069479</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.2238704440069479</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.2238704440069479</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.2238704440069479</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.2238704440069479</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.2238704440069479</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.2238704440069479</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0.2238704440069479</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0.2238704440069479</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0.2238704440069479</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +7781,52 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1905066009375135</v>
+        <v>0.2249814977018172</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.2249814977018172</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.2249814977018172</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.2249814977018172</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.2249814977018172</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.2249814977018172</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.2249814977018172</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.2249814977018172</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.2249814977018172</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.2249814977018172</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.2249814977018172</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.2249814977018172</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.2249814977018172</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0.2249814977018172</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0.2249814977018172</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0.2249814977018172</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +7834,52 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1923815212003627</v>
+        <v>0.2260980654801482</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.2260980654801482</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.2260980654801482</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.2260980654801482</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.2260980654801482</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.2260980654801482</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.2260980654801482</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.2260980654801482</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.2260980654801482</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.2260980654801482</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.2260980654801482</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.2260980654801482</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.2260980654801482</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0.2260980654801482</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0.2260980654801482</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0.2260980654801482</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +7887,52 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1942749048034211</v>
+        <v>0.22722017470796</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.22722017470796</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.22722017470796</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.22722017470796</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.22722017470796</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.22722017470796</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.22722017470796</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.22722017470796</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.22722017470796</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.22722017470796</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.22722017470796</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.22722017470796</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.22722017470796</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0.22722017470796</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0.22722017470796</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0.22722017470796</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +7940,52 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.05663990891976121</v>
+        <v>0.06049469368241775</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.06049469368241775</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.06049469368241775</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.06049469368241775</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.06049469368241775</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.06049469368241775</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.06049469368241775</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.06049469368241775</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.06049469368241775</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.06049469368241775</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.06049469368241775</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.06049469368241775</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.06049469368241775</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0.06049469368241775</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0.06049469368241775</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0.06049469368241775</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +7993,52 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.05719760713841104</v>
+        <v>0.06079492470770551</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.06079492470770551</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.06079492470770551</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.06079492470770551</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.06079492470770551</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.06079492470770551</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.06079492470770551</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.06079492470770551</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.06079492470770551</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.06079492470770551</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.06079492470770551</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.06079492470770551</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.06079492470770551</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0.06079492470770551</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0.06079492470770551</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0.06079492470770551</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +8046,52 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0577607986099337</v>
+        <v>0.06109664575902793</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.06109664575902793</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.06109664575902793</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.06109664575902793</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.06109664575902793</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.06109664575902793</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.06109664575902793</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.06109664575902793</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.06109664575902793</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.06109664575902793</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.06109664575902793</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.06109664575902793</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.06109664575902793</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0.06109664575902793</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0.06109664575902793</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0.06109664575902793</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +8099,52 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0583295374517841</v>
+        <v>0.06139986423128226</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.06139986423128226</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.06139986423128226</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.06139986423128226</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.06139986423128226</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.06139986423128226</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.06139986423128226</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.06139986423128226</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.06139986423128226</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.06139986423128226</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.06139986423128226</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.06139986423128226</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.06139986423128226</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0.06139986423128226</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0.06139986423128226</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0.06139986423128226</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +8152,52 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.01509438337494022</v>
+        <v>0.01454064894531402</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.01454064894531402</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.01454064894531402</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.01454064894531402</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.01454064894531402</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.01454064894531402</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.01454064894531402</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.01454064894531402</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.01454064894531402</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.01454064894531402</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.01454064894531402</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.01454064894531402</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.01454064894531402</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0.01454064894531402</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0.01454064894531402</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0.01454064894531402</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +8205,52 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.01524305471585138</v>
+        <v>0.01461281319105959</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.01461281319105959</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.01461281319105959</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.01461281319105959</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.01461281319105959</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.01461281319105959</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.01461281319105959</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.01461281319105959</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.01461281319105959</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.01461281319105959</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.01461281319105959</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.01461281319105959</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.01461281319105959</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0.01461281319105959</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0.01461281319105959</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0.01461281319105959</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +8258,52 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.01539319067936631</v>
+        <v>0.01468533558301883</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.01468533558301883</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.01468533558301883</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.01468533558301883</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.01468533558301883</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.01468533558301883</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.01468533558301883</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.01468533558301883</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.01468533558301883</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.01468533558301883</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.01468533558301883</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.01468533558301883</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.01468533558301883</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0.01468533558301883</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0.01468533558301883</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0.01468533558301883</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +8311,52 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.01554480569553515</v>
+        <v>0.01475821789864689</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.01475821789864689</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.01475821789864689</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.01475821789864689</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.01475821789864689</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.01475821789864689</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.01475821789864689</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.01475821789864689</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.01475821789864689</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.01475821789864689</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.01475821789864689</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0.01475821789864689</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.01475821789864689</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0.01475821789864689</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0.01475821789864689</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0.01475821789864689</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +8364,52 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.003514792110595165</v>
+        <v>0.003061337404468835</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.003061337404468835</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.003061337404468835</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.003061337404468835</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.003061337404468835</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.003061337404468835</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.003061337404468835</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.003061337404468835</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.003061337404468835</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.003061337404468835</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.003061337404468835</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0.003061337404468835</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.003061337404468835</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0.003061337404468835</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0.003061337404468835</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0.003061337404468835</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +8417,52 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.003549417599720309</v>
+        <v>0.003076530612529703</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.003076530612529703</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.003076530612529703</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.003076530612529703</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.003076530612529703</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.003076530612529703</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.003076530612529703</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.003076530612529703</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.003076530612529703</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.003076530612529703</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.003076530612529703</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0.003076530612529703</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.003076530612529703</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0.003076530612529703</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0.003076530612529703</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0.003076530612529703</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +8470,52 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.003584384232200772</v>
+        <v>0.003091799223442555</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.003091799223442555</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.003091799223442555</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.003091799223442555</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.003091799223442555</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.003091799223442555</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.003091799223442555</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.003091799223442555</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.003091799223442555</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.003091799223442555</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.003091799223442555</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0.003091799223442555</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.003091799223442555</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0.003091799223442555</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0.003091799223442555</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0.003091799223442555</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +8523,52 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.00361969536928372</v>
+        <v>0.003107143611426584</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.003107143611426584</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.003107143611426584</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.003107143611426584</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.003107143611426584</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.003107143611426584</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.003107143611426584</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.003107143611426584</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.003107143611426584</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.003107143611426584</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.003107143611426584</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.003107143611426584</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.003107143611426584</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0.003107143611426584</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0.003107143611426584</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0.003107143611426584</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +8576,52 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0007004434751066325</v>
+        <v>0.0005525259552950142</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.0005525259552950142</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0005525259552950142</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.0005525259552950142</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.0005525259552950142</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.0005525259552950142</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.0005525259552950142</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.0005525259552950142</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.0005525259552950142</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.0005525259552950142</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.0005525259552950142</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0.0005525259552950142</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.0005525259552950142</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0.0005525259552950142</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0.0005525259552950142</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0.0005525259552950142</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +8629,52 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.000707344581483622</v>
+        <v>0.0005552681038035624</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.0005552681038035624</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0005552681038035624</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.0005552681038035624</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.0005552681038035624</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.0005552681038035624</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.0005552681038035624</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.0005552681038035624</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.0005552681038035624</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.0005552681038035624</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.0005552681038035624</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0.0005552681038035624</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.0005552681038035624</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0.0005552681038035624</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0.0005552681038035624</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0.0005552681038035624</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +8682,52 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0007143136840516614</v>
+        <v>0.0005580238614075221</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.0005580238614075221</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.0005580238614075221</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.0005580238614075221</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.0005580238614075221</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.0005580238614075221</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.0005580238614075221</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.0005580238614075221</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.0005580238614075221</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.0005580238614075221</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.0005580238614075221</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0.0005580238614075221</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.0005580238614075221</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0.0005580238614075221</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0.0005580238614075221</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0.0005580238614075221</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +8735,52 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.000721351452788905</v>
+        <v>0.0005607932956479026</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.0005607932956479026</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0005607932956479026</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.0005607932956479026</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.0005607932956479026</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.0005607932956479026</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.0005607932956479026</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.0005607932956479026</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.0005607932956479026</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.0005607932956479026</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.0005607932956479026</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0.0005607932956479026</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.0005607932956479026</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0.0005607932956479026</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0.0005607932956479026</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0.0005607932956479026</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +8788,52 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0001162431602422998</v>
+        <v>8.307575756818005e-05</v>
+      </c>
+      <c r="C158" t="n">
+        <v>8.307575756818005e-05</v>
+      </c>
+      <c r="D158" t="n">
+        <v>8.307575756818005e-05</v>
+      </c>
+      <c r="E158" t="n">
+        <v>8.307575756818005e-05</v>
+      </c>
+      <c r="F158" t="n">
+        <v>8.307575756818005e-05</v>
+      </c>
+      <c r="G158" t="n">
+        <v>8.307575756818005e-05</v>
+      </c>
+      <c r="H158" t="n">
+        <v>8.307575756818005e-05</v>
+      </c>
+      <c r="I158" t="n">
+        <v>8.307575756818005e-05</v>
+      </c>
+      <c r="J158" t="n">
+        <v>8.307575756818005e-05</v>
+      </c>
+      <c r="K158" t="n">
+        <v>8.307575756818005e-05</v>
+      </c>
+      <c r="L158" t="n">
+        <v>8.307575756818005e-05</v>
+      </c>
+      <c r="M158" t="n">
+        <v>8.307575756818005e-05</v>
+      </c>
+      <c r="N158" t="n">
+        <v>8.307575756818005e-05</v>
+      </c>
+      <c r="O158" t="n">
+        <v>8.307575756818005e-05</v>
+      </c>
+      <c r="P158" t="n">
+        <v>8.307575756818005e-05</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>8.307575756818005e-05</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +8841,52 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0001173885124570397</v>
+        <v>8.348805686838299e-05</v>
+      </c>
+      <c r="C159" t="n">
+        <v>8.348805686838299e-05</v>
+      </c>
+      <c r="D159" t="n">
+        <v>8.348805686838299e-05</v>
+      </c>
+      <c r="E159" t="n">
+        <v>8.348805686838299e-05</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8.348805686838299e-05</v>
+      </c>
+      <c r="G159" t="n">
+        <v>8.348805686838299e-05</v>
+      </c>
+      <c r="H159" t="n">
+        <v>8.348805686838299e-05</v>
+      </c>
+      <c r="I159" t="n">
+        <v>8.348805686838299e-05</v>
+      </c>
+      <c r="J159" t="n">
+        <v>8.348805686838299e-05</v>
+      </c>
+      <c r="K159" t="n">
+        <v>8.348805686838299e-05</v>
+      </c>
+      <c r="L159" t="n">
+        <v>8.348805686838299e-05</v>
+      </c>
+      <c r="M159" t="n">
+        <v>8.348805686838299e-05</v>
+      </c>
+      <c r="N159" t="n">
+        <v>8.348805686838299e-05</v>
+      </c>
+      <c r="O159" t="n">
+        <v>8.348805686838299e-05</v>
+      </c>
+      <c r="P159" t="n">
+        <v>8.348805686838299e-05</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>8.348805686838299e-05</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +8894,52 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0001185451500997268</v>
+        <v>8.390240238180052e-05</v>
+      </c>
+      <c r="C160" t="n">
+        <v>8.390240238180052e-05</v>
+      </c>
+      <c r="D160" t="n">
+        <v>8.390240238180052e-05</v>
+      </c>
+      <c r="E160" t="n">
+        <v>8.390240238180052e-05</v>
+      </c>
+      <c r="F160" t="n">
+        <v>8.390240238180052e-05</v>
+      </c>
+      <c r="G160" t="n">
+        <v>8.390240238180052e-05</v>
+      </c>
+      <c r="H160" t="n">
+        <v>8.390240238180052e-05</v>
+      </c>
+      <c r="I160" t="n">
+        <v>8.390240238180052e-05</v>
+      </c>
+      <c r="J160" t="n">
+        <v>8.390240238180052e-05</v>
+      </c>
+      <c r="K160" t="n">
+        <v>8.390240238180052e-05</v>
+      </c>
+      <c r="L160" t="n">
+        <v>8.390240238180052e-05</v>
+      </c>
+      <c r="M160" t="n">
+        <v>8.390240238180052e-05</v>
+      </c>
+      <c r="N160" t="n">
+        <v>8.390240238180052e-05</v>
+      </c>
+      <c r="O160" t="n">
+        <v>8.390240238180052e-05</v>
+      </c>
+      <c r="P160" t="n">
+        <v>8.390240238180052e-05</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>8.390240238180052e-05</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +8947,52 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001197131843693128</v>
+        <v>8.431880426364882e-05</v>
+      </c>
+      <c r="C161" t="n">
+        <v>8.431880426364882e-05</v>
+      </c>
+      <c r="D161" t="n">
+        <v>8.431880426364882e-05</v>
+      </c>
+      <c r="E161" t="n">
+        <v>8.431880426364882e-05</v>
+      </c>
+      <c r="F161" t="n">
+        <v>8.431880426364882e-05</v>
+      </c>
+      <c r="G161" t="n">
+        <v>8.431880426364882e-05</v>
+      </c>
+      <c r="H161" t="n">
+        <v>8.431880426364882e-05</v>
+      </c>
+      <c r="I161" t="n">
+        <v>8.431880426364882e-05</v>
+      </c>
+      <c r="J161" t="n">
+        <v>8.431880426364882e-05</v>
+      </c>
+      <c r="K161" t="n">
+        <v>8.431880426364882e-05</v>
+      </c>
+      <c r="L161" t="n">
+        <v>8.431880426364882e-05</v>
+      </c>
+      <c r="M161" t="n">
+        <v>8.431880426364882e-05</v>
+      </c>
+      <c r="N161" t="n">
+        <v>8.431880426364882e-05</v>
+      </c>
+      <c r="O161" t="n">
+        <v>8.431880426364882e-05</v>
+      </c>
+      <c r="P161" t="n">
+        <v>8.431880426364882e-05</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>8.431880426364882e-05</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +9000,52 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.541262869604756e-05</v>
+        <v>9.996557870901549e-06</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9.996557870901549e-06</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9.996557870901549e-06</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9.996557870901549e-06</v>
+      </c>
+      <c r="F162" t="n">
+        <v>9.996557870901549e-06</v>
+      </c>
+      <c r="G162" t="n">
+        <v>9.996557870901549e-06</v>
+      </c>
+      <c r="H162" t="n">
+        <v>9.996557870901549e-06</v>
+      </c>
+      <c r="I162" t="n">
+        <v>9.996557870901549e-06</v>
+      </c>
+      <c r="J162" t="n">
+        <v>9.996557870901549e-06</v>
+      </c>
+      <c r="K162" t="n">
+        <v>9.996557870901549e-06</v>
+      </c>
+      <c r="L162" t="n">
+        <v>9.996557870901549e-06</v>
+      </c>
+      <c r="M162" t="n">
+        <v>9.996557870901549e-06</v>
+      </c>
+      <c r="N162" t="n">
+        <v>9.996557870901549e-06</v>
+      </c>
+      <c r="O162" t="n">
+        <v>9.996557870901549e-06</v>
+      </c>
+      <c r="P162" t="n">
+        <v>9.996557870901549e-06</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>9.996557870901549e-06</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +9053,52 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.556449442369591e-05</v>
+        <v>1.004617010358241e-05</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.004617010358241e-05</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.004617010358241e-05</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.004617010358241e-05</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.004617010358241e-05</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.004617010358241e-05</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1.004617010358241e-05</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.004617010358241e-05</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1.004617010358241e-05</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1.004617010358241e-05</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1.004617010358241e-05</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1.004617010358241e-05</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1.004617010358241e-05</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1.004617010358241e-05</v>
+      </c>
+      <c r="P163" t="n">
+        <v>1.004617010358241e-05</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>1.004617010358241e-05</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +9106,52 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.571785654029856e-05</v>
+        <v>1.009602855837925e-05</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.009602855837925e-05</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.009602855837925e-05</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.009602855837925e-05</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.009602855837925e-05</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.009602855837925e-05</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1.009602855837925e-05</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.009602855837925e-05</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.009602855837925e-05</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1.009602855837925e-05</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1.009602855837925e-05</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1.009602855837925e-05</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1.009602855837925e-05</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1.009602855837925e-05</v>
+      </c>
+      <c r="P164" t="n">
+        <v>1.009602855837925e-05</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>1.009602855837925e-05</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +9159,52 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.587272979035542e-05</v>
+        <v>1.01461344572756e-05</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.01461344572756e-05</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.01461344572756e-05</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.01461344572756e-05</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.01461344572756e-05</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1.01461344572756e-05</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1.01461344572756e-05</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1.01461344572756e-05</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1.01461344572756e-05</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1.01461344572756e-05</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1.01461344572756e-05</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1.01461344572756e-05</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1.01461344572756e-05</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1.01461344572756e-05</v>
+      </c>
+      <c r="P165" t="n">
+        <v>1.01461344572756e-05</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>1.01461344572756e-05</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +9212,52 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.526754164493818e-06</v>
+        <v>9.014821515235521e-07</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9.014821515235521e-07</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9.014821515235521e-07</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9.014821515235521e-07</v>
+      </c>
+      <c r="F166" t="n">
+        <v>9.014821515235521e-07</v>
+      </c>
+      <c r="G166" t="n">
+        <v>9.014821515235521e-07</v>
+      </c>
+      <c r="H166" t="n">
+        <v>9.014821515235521e-07</v>
+      </c>
+      <c r="I166" t="n">
+        <v>9.014821515235521e-07</v>
+      </c>
+      <c r="J166" t="n">
+        <v>9.014821515235521e-07</v>
+      </c>
+      <c r="K166" t="n">
+        <v>9.014821515235521e-07</v>
+      </c>
+      <c r="L166" t="n">
+        <v>9.014821515235521e-07</v>
+      </c>
+      <c r="M166" t="n">
+        <v>9.014821515235521e-07</v>
+      </c>
+      <c r="N166" t="n">
+        <v>9.014821515235521e-07</v>
+      </c>
+      <c r="O166" t="n">
+        <v>9.014821515235521e-07</v>
+      </c>
+      <c r="P166" t="n">
+        <v>9.014821515235521e-07</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>9.014821515235521e-07</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +9265,52 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.534331340941304e-06</v>
+        <v>9.059561457560281e-07</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9.059561457560281e-07</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9.059561457560281e-07</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9.059561457560281e-07</v>
+      </c>
+      <c r="F167" t="n">
+        <v>9.059561457560281e-07</v>
+      </c>
+      <c r="G167" t="n">
+        <v>9.059561457560281e-07</v>
+      </c>
+      <c r="H167" t="n">
+        <v>9.059561457560281e-07</v>
+      </c>
+      <c r="I167" t="n">
+        <v>9.059561457560281e-07</v>
+      </c>
+      <c r="J167" t="n">
+        <v>9.059561457560281e-07</v>
+      </c>
+      <c r="K167" t="n">
+        <v>9.059561457560281e-07</v>
+      </c>
+      <c r="L167" t="n">
+        <v>9.059561457560281e-07</v>
+      </c>
+      <c r="M167" t="n">
+        <v>9.059561457560281e-07</v>
+      </c>
+      <c r="N167" t="n">
+        <v>9.059561457560281e-07</v>
+      </c>
+      <c r="O167" t="n">
+        <v>9.059561457560281e-07</v>
+      </c>
+      <c r="P167" t="n">
+        <v>9.059561457560281e-07</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>9.059561457560281e-07</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +9318,52 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.541946122397018e-06</v>
+        <v>9.104523441157386e-07</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9.104523441157386e-07</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9.104523441157386e-07</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9.104523441157386e-07</v>
+      </c>
+      <c r="F168" t="n">
+        <v>9.104523441157386e-07</v>
+      </c>
+      <c r="G168" t="n">
+        <v>9.104523441157386e-07</v>
+      </c>
+      <c r="H168" t="n">
+        <v>9.104523441157386e-07</v>
+      </c>
+      <c r="I168" t="n">
+        <v>9.104523441157386e-07</v>
+      </c>
+      <c r="J168" t="n">
+        <v>9.104523441157386e-07</v>
+      </c>
+      <c r="K168" t="n">
+        <v>9.104523441157386e-07</v>
+      </c>
+      <c r="L168" t="n">
+        <v>9.104523441157386e-07</v>
+      </c>
+      <c r="M168" t="n">
+        <v>9.104523441157386e-07</v>
+      </c>
+      <c r="N168" t="n">
+        <v>9.104523441157386e-07</v>
+      </c>
+      <c r="O168" t="n">
+        <v>9.104523441157386e-07</v>
+      </c>
+      <c r="P168" t="n">
+        <v>9.104523441157386e-07</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>9.104523441157386e-07</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +9371,52 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.549598695492041e-06</v>
+        <v>9.149708568002481e-07</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9.149708568002481e-07</v>
+      </c>
+      <c r="D169" t="n">
+        <v>9.149708568002481e-07</v>
+      </c>
+      <c r="E169" t="n">
+        <v>9.149708568002481e-07</v>
+      </c>
+      <c r="F169" t="n">
+        <v>9.149708568002481e-07</v>
+      </c>
+      <c r="G169" t="n">
+        <v>9.149708568002481e-07</v>
+      </c>
+      <c r="H169" t="n">
+        <v>9.149708568002481e-07</v>
+      </c>
+      <c r="I169" t="n">
+        <v>9.149708568002481e-07</v>
+      </c>
+      <c r="J169" t="n">
+        <v>9.149708568002481e-07</v>
+      </c>
+      <c r="K169" t="n">
+        <v>9.149708568002481e-07</v>
+      </c>
+      <c r="L169" t="n">
+        <v>9.149708568002481e-07</v>
+      </c>
+      <c r="M169" t="n">
+        <v>9.149708568002481e-07</v>
+      </c>
+      <c r="N169" t="n">
+        <v>9.149708568002481e-07</v>
+      </c>
+      <c r="O169" t="n">
+        <v>9.149708568002481e-07</v>
+      </c>
+      <c r="P169" t="n">
+        <v>9.149708568002481e-07</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>9.149708568002481e-07</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +9424,52 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>9.896626174954952e-08</v>
+        <v>5.412342734956098e-08</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5.412342734956098e-08</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5.412342734956098e-08</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5.412342734956098e-08</v>
+      </c>
+      <c r="F170" t="n">
+        <v>5.412342734956098e-08</v>
+      </c>
+      <c r="G170" t="n">
+        <v>5.412342734956098e-08</v>
+      </c>
+      <c r="H170" t="n">
+        <v>5.412342734956098e-08</v>
+      </c>
+      <c r="I170" t="n">
+        <v>5.412342734956098e-08</v>
+      </c>
+      <c r="J170" t="n">
+        <v>5.412342734956098e-08</v>
+      </c>
+      <c r="K170" t="n">
+        <v>5.412342734956098e-08</v>
+      </c>
+      <c r="L170" t="n">
+        <v>5.412342734956098e-08</v>
+      </c>
+      <c r="M170" t="n">
+        <v>5.412342734956098e-08</v>
+      </c>
+      <c r="N170" t="n">
+        <v>5.412342734956098e-08</v>
+      </c>
+      <c r="O170" t="n">
+        <v>5.412342734956098e-08</v>
+      </c>
+      <c r="P170" t="n">
+        <v>5.412342734956098e-08</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>5.412342734956098e-08</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +9477,52 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>9.945742453466831e-08</v>
+        <v>5.439203821600412e-08</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5.439203821600412e-08</v>
+      </c>
+      <c r="D171" t="n">
+        <v>5.439203821600412e-08</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5.439203821600412e-08</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5.439203821600412e-08</v>
+      </c>
+      <c r="G171" t="n">
+        <v>5.439203821600412e-08</v>
+      </c>
+      <c r="H171" t="n">
+        <v>5.439203821600412e-08</v>
+      </c>
+      <c r="I171" t="n">
+        <v>5.439203821600412e-08</v>
+      </c>
+      <c r="J171" t="n">
+        <v>5.439203821600412e-08</v>
+      </c>
+      <c r="K171" t="n">
+        <v>5.439203821600412e-08</v>
+      </c>
+      <c r="L171" t="n">
+        <v>5.439203821600412e-08</v>
+      </c>
+      <c r="M171" t="n">
+        <v>5.439203821600412e-08</v>
+      </c>
+      <c r="N171" t="n">
+        <v>5.439203821600412e-08</v>
+      </c>
+      <c r="O171" t="n">
+        <v>5.439203821600412e-08</v>
+      </c>
+      <c r="P171" t="n">
+        <v>5.439203821600412e-08</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>5.439203821600412e-08</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +9530,52 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>9.995102492708095e-08</v>
+        <v>5.466198217979724e-08</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5.466198217979724e-08</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5.466198217979724e-08</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5.466198217979724e-08</v>
+      </c>
+      <c r="F172" t="n">
+        <v>5.466198217979724e-08</v>
+      </c>
+      <c r="G172" t="n">
+        <v>5.466198217979724e-08</v>
+      </c>
+      <c r="H172" t="n">
+        <v>5.466198217979724e-08</v>
+      </c>
+      <c r="I172" t="n">
+        <v>5.466198217979724e-08</v>
+      </c>
+      <c r="J172" t="n">
+        <v>5.466198217979724e-08</v>
+      </c>
+      <c r="K172" t="n">
+        <v>5.466198217979724e-08</v>
+      </c>
+      <c r="L172" t="n">
+        <v>5.466198217979724e-08</v>
+      </c>
+      <c r="M172" t="n">
+        <v>5.466198217979724e-08</v>
+      </c>
+      <c r="N172" t="n">
+        <v>5.466198217979724e-08</v>
+      </c>
+      <c r="O172" t="n">
+        <v>5.466198217979724e-08</v>
+      </c>
+      <c r="P172" t="n">
+        <v>5.466198217979724e-08</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>5.466198217979724e-08</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +9583,52 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.004470750244657e-07</v>
+        <v>5.493326585701126e-08</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5.493326585701126e-08</v>
+      </c>
+      <c r="D173" t="n">
+        <v>5.493326585701126e-08</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5.493326585701126e-08</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5.493326585701126e-08</v>
+      </c>
+      <c r="G173" t="n">
+        <v>5.493326585701126e-08</v>
+      </c>
+      <c r="H173" t="n">
+        <v>5.493326585701126e-08</v>
+      </c>
+      <c r="I173" t="n">
+        <v>5.493326585701126e-08</v>
+      </c>
+      <c r="J173" t="n">
+        <v>5.493326585701126e-08</v>
+      </c>
+      <c r="K173" t="n">
+        <v>5.493326585701126e-08</v>
+      </c>
+      <c r="L173" t="n">
+        <v>5.493326585701126e-08</v>
+      </c>
+      <c r="M173" t="n">
+        <v>5.493326585701126e-08</v>
+      </c>
+      <c r="N173" t="n">
+        <v>5.493326585701126e-08</v>
+      </c>
+      <c r="O173" t="n">
+        <v>5.493326585701126e-08</v>
+      </c>
+      <c r="P173" t="n">
+        <v>5.493326585701126e-08</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>5.493326585701126e-08</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +9636,52 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3.209647712421586e-09</v>
+        <v>1.626251909469304e-09</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.626251909469304e-09</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.626251909469304e-09</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.626251909469304e-09</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.626251909469304e-09</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1.626251909469304e-09</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1.626251909469304e-09</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1.626251909469304e-09</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1.626251909469304e-09</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1.626251909469304e-09</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1.626251909469304e-09</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1.626251909469304e-09</v>
+      </c>
+      <c r="N174" t="n">
+        <v>1.626251909469304e-09</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1.626251909469304e-09</v>
+      </c>
+      <c r="P174" t="n">
+        <v>1.626251909469304e-09</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>1.626251909469304e-09</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +9689,52 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3.225576974392424e-09</v>
+        <v>1.634322886416792e-09</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.634322886416792e-09</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.634322886416792e-09</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.634322886416792e-09</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1.634322886416792e-09</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1.634322886416792e-09</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1.634322886416792e-09</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1.634322886416792e-09</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1.634322886416792e-09</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1.634322886416792e-09</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1.634322886416792e-09</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1.634322886416792e-09</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1.634322886416792e-09</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1.634322886416792e-09</v>
+      </c>
+      <c r="P175" t="n">
+        <v>1.634322886416792e-09</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>1.634322886416792e-09</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +9742,52 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3.241585292200436e-09</v>
+        <v>1.6424339190706e-09</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.6424339190706e-09</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.6424339190706e-09</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.6424339190706e-09</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1.6424339190706e-09</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1.6424339190706e-09</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1.6424339190706e-09</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1.6424339190706e-09</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.6424339190706e-09</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1.6424339190706e-09</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1.6424339190706e-09</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1.6424339190706e-09</v>
+      </c>
+      <c r="N176" t="n">
+        <v>1.6424339190706e-09</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1.6424339190706e-09</v>
+      </c>
+      <c r="P176" t="n">
+        <v>1.6424339190706e-09</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>1.6424339190706e-09</v>
       </c>
     </row>
     <row r="177">
@@ -1845,199 +9795,52 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3.257673058194331e-09</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>0</v>
+        <v>1.650585206224456e-09</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.650585206224456e-09</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.650585206224456e-09</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.650585206224456e-09</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1.650585206224456e-09</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1.650585206224456e-09</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1.650585206224456e-09</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1.650585206224456e-09</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.650585206224456e-09</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1.650585206224456e-09</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1.650585206224456e-09</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1.650585206224456e-09</v>
+      </c>
+      <c r="N177" t="n">
+        <v>1.650585206224456e-09</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1.650585206224456e-09</v>
+      </c>
+      <c r="P177" t="n">
+        <v>1.650585206224456e-09</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>1.650585206224456e-09</v>
       </c>
     </row>
   </sheetData>
